--- a/dataSamples/Fun Family Page A Day Data (v5).xlsx
+++ b/dataSamples/Fun Family Page A Day Data (v5).xlsx
@@ -45,10 +45,10 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Barry Gerhardt - Personal View" guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" mergeInterval="0" personalView="1" xWindow="333" yWindow="59" windowWidth="1516" windowHeight="897" activeSheetId="1"/>
+    <customWorkbookView name="Windows User - Personal View" guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="854" activeSheetId="1"/>
+    <customWorkbookView name="Rebecca Gerhardt - Personal View" guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1244" windowHeight="540" activeSheetId="1"/>
     <customWorkbookView name="Owner - Personal View" guid="{36663624-9048-4258-8F9E-F8388303C4CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="980" activeSheetId="1"/>
-    <customWorkbookView name="Rebecca Gerhardt - Personal View" guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1244" windowHeight="540" activeSheetId="1"/>
-    <customWorkbookView name="Windows User - Personal View" guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="854" activeSheetId="1"/>
-    <customWorkbookView name="Barry Gerhardt - Personal View" guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" mergeInterval="0" personalView="1" xWindow="333" yWindow="59" windowWidth="1516" windowHeight="897" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2895,13 +2895,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PAGES" displayName="PAGES" ref="A5:K428" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A5:K428">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="HOLIDAY"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:K428"/>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="13">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:TYPE" xmlDataType="token"/>
@@ -3310,9 +3304,9 @@
   <dimension ref="A1:P428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
-      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,7 +4350,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <v>1</v>
       </c>
@@ -4399,7 +4393,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>518</v>
       </c>
@@ -4423,7 +4417,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>518</v>
       </c>
@@ -4447,7 +4441,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <v>1</v>
       </c>
@@ -4490,7 +4484,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <v>1</v>
       </c>
@@ -4509,7 +4503,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <v>1</v>
       </c>
@@ -4528,7 +4522,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
         <v>1</v>
       </c>
@@ -4547,7 +4541,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <v>1</v>
       </c>
@@ -4566,7 +4560,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <v>1</v>
       </c>
@@ -4585,7 +4579,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <v>1</v>
       </c>
@@ -4628,7 +4622,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>518</v>
       </c>
@@ -4652,7 +4646,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <v>1</v>
       </c>
@@ -4695,7 +4689,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
         <v>1</v>
       </c>
@@ -4714,7 +4708,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
         <v>1</v>
       </c>
@@ -4733,7 +4727,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
         <v>1</v>
       </c>
@@ -4776,7 +4770,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>518</v>
       </c>
@@ -4802,7 +4796,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>518</v>
       </c>
@@ -4826,7 +4820,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
         <v>1</v>
       </c>
@@ -4845,7 +4839,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C73" s="2">
         <v>1</v>
       </c>
@@ -4864,7 +4858,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C74" s="2">
         <v>1</v>
       </c>
@@ -4883,7 +4877,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C75" s="2">
         <v>1</v>
       </c>
@@ -4902,7 +4896,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C76" s="2">
         <v>1</v>
       </c>
@@ -4921,7 +4915,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77" s="2">
         <v>1</v>
       </c>
@@ -4964,7 +4958,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C79" s="2">
         <v>1</v>
       </c>
@@ -4983,7 +4977,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>518</v>
       </c>
@@ -5007,7 +5001,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
         <v>1</v>
       </c>
@@ -5074,7 +5068,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="2">
         <v>2</v>
       </c>
@@ -5093,7 +5087,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C85" s="2">
         <v>2</v>
       </c>
@@ -5112,7 +5106,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C86" s="2">
         <v>2</v>
       </c>
@@ -5131,7 +5125,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C87" s="2">
         <v>2</v>
       </c>
@@ -5150,7 +5144,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C88" s="2">
         <v>2</v>
       </c>
@@ -5169,7 +5163,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C89" s="2">
         <v>2</v>
       </c>
@@ -5188,7 +5182,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C90" s="2">
         <v>2</v>
       </c>
@@ -5231,7 +5225,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C92" s="2">
         <v>2</v>
       </c>
@@ -5250,7 +5244,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C93" s="2">
         <v>2</v>
       </c>
@@ -5269,7 +5263,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C94" s="2">
         <v>2</v>
       </c>
@@ -5310,7 +5304,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C96" s="2">
         <v>2</v>
       </c>
@@ -5329,7 +5323,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C97" s="2">
         <v>2</v>
       </c>
@@ -5348,7 +5342,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C98" s="2">
         <v>2</v>
       </c>
@@ -5367,7 +5361,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C99" s="2">
         <v>2</v>
       </c>
@@ -5386,7 +5380,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C100" s="2">
         <v>2</v>
       </c>
@@ -5405,7 +5399,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C101" s="2">
         <v>2</v>
       </c>
@@ -5424,7 +5418,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C102" s="2">
         <v>2</v>
       </c>
@@ -5467,7 +5461,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C104" s="2">
         <v>2</v>
       </c>
@@ -5486,7 +5480,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C105" s="2">
         <v>2</v>
       </c>
@@ -5505,7 +5499,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C106" s="2">
         <v>2</v>
       </c>
@@ -5524,7 +5518,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C107" s="2">
         <v>2</v>
       </c>
@@ -5543,7 +5537,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C108" s="2">
         <v>2</v>
       </c>
@@ -5562,7 +5556,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>518</v>
       </c>
@@ -5610,7 +5604,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C111" s="2">
         <v>3</v>
       </c>
@@ -5649,7 +5643,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>518</v>
       </c>
@@ -5697,7 +5691,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C115" s="2">
         <v>3</v>
       </c>
@@ -5716,7 +5710,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C116" s="2">
         <v>3</v>
       </c>
@@ -5735,7 +5729,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>518</v>
       </c>
@@ -5759,7 +5753,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C118" s="2">
         <v>3</v>
       </c>
@@ -5778,7 +5772,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C119" s="2">
         <v>3</v>
       </c>
@@ -5797,7 +5791,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C120" s="2">
         <v>3</v>
       </c>
@@ -5816,7 +5810,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C121" s="2">
         <v>3</v>
       </c>
@@ -5835,7 +5829,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C122" s="2">
         <v>3</v>
       </c>
@@ -5854,7 +5848,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C123" s="2">
         <v>3</v>
       </c>
@@ -5873,7 +5867,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C124" s="2">
         <v>3</v>
       </c>
@@ -5916,7 +5910,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C126" s="2">
         <v>3</v>
       </c>
@@ -5935,7 +5929,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C127" s="2">
         <v>3</v>
       </c>
@@ -5976,7 +5970,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>518</v>
       </c>
@@ -5998,7 +5992,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C130" s="2">
         <v>3</v>
       </c>
@@ -6017,7 +6011,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C131" s="2">
         <v>3</v>
       </c>
@@ -6062,7 +6056,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C133" s="2">
         <v>3</v>
       </c>
@@ -6105,7 +6099,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C135" s="2">
         <v>3</v>
       </c>
@@ -6124,7 +6118,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C136" s="2">
         <v>3</v>
       </c>
@@ -6143,7 +6137,7 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C137" s="2">
         <v>3</v>
       </c>
@@ -6162,7 +6156,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C138" s="2">
         <v>3</v>
       </c>
@@ -6205,7 +6199,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C140" s="2">
         <v>3</v>
       </c>
@@ -6224,7 +6218,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C141" s="2">
         <v>3</v>
       </c>
@@ -6246,7 +6240,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C142" s="2">
         <v>3</v>
       </c>
@@ -6265,7 +6259,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>518</v>
       </c>
@@ -6337,7 +6331,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C146" s="2">
         <v>4</v>
       </c>
@@ -6356,7 +6350,7 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C147" s="2">
         <v>4</v>
       </c>
@@ -6375,7 +6369,7 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C148" s="2">
         <v>4</v>
       </c>
@@ -6394,7 +6388,7 @@
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C149" s="2">
         <v>4</v>
       </c>
@@ -6413,7 +6407,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C150" s="2">
         <v>4</v>
       </c>
@@ -6432,7 +6426,7 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C151" s="2">
         <v>4</v>
       </c>
@@ -6451,7 +6445,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C152" s="2">
         <v>4</v>
       </c>
@@ -6494,7 +6488,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>518</v>
       </c>
@@ -6518,7 +6512,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>518</v>
       </c>
@@ -6542,7 +6536,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="7"/>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C156" s="2">
         <v>4</v>
       </c>
@@ -6561,7 +6555,7 @@
       <c r="J156" s="1"/>
       <c r="K156" s="8"/>
     </row>
-    <row r="157" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C157" s="2">
         <v>4</v>
       </c>
@@ -6580,7 +6574,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C158" s="2">
         <v>4</v>
       </c>
@@ -6599,7 +6593,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="8"/>
     </row>
-    <row r="159" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C159" s="2">
         <v>4</v>
       </c>
@@ -6618,7 +6612,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C160" s="2">
         <v>4</v>
       </c>
@@ -6637,7 +6631,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="8"/>
     </row>
-    <row r="161" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C161" s="2">
         <v>4</v>
       </c>
@@ -6656,7 +6650,7 @@
       <c r="J161" s="1"/>
       <c r="K161" s="7"/>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C162" s="2">
         <v>4</v>
       </c>
@@ -6675,7 +6669,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C163" s="2">
         <v>4</v>
       </c>
@@ -6694,7 +6688,7 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C164" s="2">
         <v>4</v>
       </c>
@@ -6737,7 +6731,7 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C166" s="2">
         <v>4</v>
       </c>
@@ -6756,7 +6750,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>518</v>
       </c>
@@ -6780,7 +6774,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C168" s="2">
         <v>4</v>
       </c>
@@ -6799,7 +6793,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C169" s="2">
         <v>4</v>
       </c>
@@ -6818,7 +6812,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C170" s="2">
         <v>4</v>
       </c>
@@ -6861,7 +6855,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C172" s="2">
         <v>4</v>
       </c>
@@ -6880,7 +6874,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C173" s="2">
         <v>4</v>
       </c>
@@ -6919,7 +6913,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>644</v>
       </c>
@@ -6943,7 +6937,7 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>644</v>
       </c>
@@ -6969,7 +6963,7 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C177" s="2">
         <v>5</v>
       </c>
@@ -6988,7 +6982,7 @@
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C178" s="2">
         <v>5</v>
       </c>
@@ -7079,7 +7073,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C182" s="2">
         <v>5</v>
       </c>
@@ -7122,7 +7116,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C184" s="2">
         <v>5</v>
       </c>
@@ -7141,7 +7135,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C185" s="2">
         <v>5</v>
       </c>
@@ -7160,7 +7154,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C186" s="2">
         <v>5</v>
       </c>
@@ -7179,7 +7173,7 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C187" s="2">
         <v>5</v>
       </c>
@@ -7198,7 +7192,7 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C188" s="2">
         <v>5</v>
       </c>
@@ -7217,7 +7211,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C189" s="2">
         <v>5</v>
       </c>
@@ -7236,7 +7230,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C190" s="2">
         <v>5</v>
       </c>
@@ -7255,7 +7249,7 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>644</v>
       </c>
@@ -7279,7 +7273,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>518</v>
       </c>
@@ -7303,7 +7297,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C193" s="2">
         <v>5</v>
       </c>
@@ -7322,7 +7316,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>644</v>
       </c>
@@ -7346,7 +7340,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C195" s="2">
         <v>5</v>
       </c>
@@ -7365,7 +7359,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>518</v>
       </c>
@@ -7413,7 +7407,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C198" s="2">
         <v>5</v>
       </c>
@@ -7432,7 +7426,7 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C199" s="2">
         <v>5</v>
       </c>
@@ -7451,7 +7445,7 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C200" s="2">
         <v>5</v>
       </c>
@@ -7470,7 +7464,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C201" s="2">
         <v>5</v>
       </c>
@@ -7489,7 +7483,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C202" s="2">
         <v>5</v>
       </c>
@@ -7508,7 +7502,7 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C203" s="2">
         <v>5</v>
       </c>
@@ -7527,7 +7521,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C204" s="2">
         <v>5</v>
       </c>
@@ -7546,7 +7540,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C205" s="2">
         <v>5</v>
       </c>
@@ -7565,7 +7559,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C206" s="2">
         <v>5</v>
       </c>
@@ -7608,7 +7602,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C208" s="2">
         <v>6</v>
       </c>
@@ -7627,7 +7621,7 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C209" s="2">
         <v>6</v>
       </c>
@@ -7670,7 +7664,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C211" s="2">
         <v>6</v>
       </c>
@@ -7711,7 +7705,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>518</v>
       </c>
@@ -7735,7 +7729,7 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C214" s="2">
         <v>6</v>
       </c>
@@ -7778,7 +7772,7 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C216" s="2">
         <v>6</v>
       </c>
@@ -7797,7 +7791,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C217" s="2">
         <v>6</v>
       </c>
@@ -7840,7 +7834,7 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C219" s="2">
         <v>6</v>
       </c>
@@ -7859,7 +7853,7 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C220" s="2">
         <v>6</v>
       </c>
@@ -7902,7 +7896,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>518</v>
       </c>
@@ -7926,7 +7920,7 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C223" s="2">
         <v>6</v>
       </c>
@@ -7945,7 +7939,7 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C224" s="2">
         <v>6</v>
       </c>
@@ -7964,7 +7958,7 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C225" s="2">
         <v>6</v>
       </c>
@@ -7983,7 +7977,7 @@
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C226" s="2">
         <v>6</v>
       </c>
@@ -8002,7 +7996,7 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C227" s="2">
         <v>6</v>
       </c>
@@ -8045,7 +8039,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C229" s="2">
         <v>6</v>
       </c>
@@ -8064,7 +8058,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C230" s="2">
         <v>6</v>
       </c>
@@ -8083,7 +8077,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>518</v>
       </c>
@@ -8107,7 +8101,7 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C232" s="2">
         <v>6</v>
       </c>
@@ -8150,7 +8144,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C234" s="2">
         <v>6</v>
       </c>
@@ -8169,7 +8163,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C235" s="2">
         <v>6</v>
       </c>
@@ -8212,7 +8206,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C237" s="2">
         <v>6</v>
       </c>
@@ -8255,7 +8249,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C239" s="2">
         <v>7</v>
       </c>
@@ -8274,7 +8268,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C240" s="2">
         <v>7</v>
       </c>
@@ -8317,7 +8311,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C242" s="2">
         <v>7</v>
       </c>
@@ -8336,7 +8330,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C243" s="2">
         <v>7</v>
       </c>
@@ -8421,7 +8415,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C247" s="2">
         <v>7</v>
       </c>
@@ -8440,7 +8434,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C248" s="2">
         <v>7</v>
       </c>
@@ -8459,7 +8453,7 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C249" s="2">
         <v>7</v>
       </c>
@@ -8478,7 +8472,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C250" s="2">
         <v>7</v>
       </c>
@@ -8521,7 +8515,7 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C252" s="2">
         <v>7</v>
       </c>
@@ -8540,7 +8534,7 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C253" s="2">
         <v>7</v>
       </c>
@@ -8559,7 +8553,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C254" s="2">
         <v>7</v>
       </c>
@@ -8602,7 +8596,7 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C256" s="2">
         <v>7</v>
       </c>
@@ -8621,7 +8615,7 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C257" s="2">
         <v>7</v>
       </c>
@@ -8640,7 +8634,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C258" s="2">
         <v>7</v>
       </c>
@@ -8659,7 +8653,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C259" s="2">
         <v>7</v>
       </c>
@@ -8702,7 +8696,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C261" s="2">
         <v>7</v>
       </c>
@@ -8721,7 +8715,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C262" s="2">
         <v>7</v>
       </c>
@@ -8740,7 +8734,7 @@
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C263" s="2">
         <v>7</v>
       </c>
@@ -8759,7 +8753,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C264" s="2">
         <v>7</v>
       </c>
@@ -8778,7 +8772,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C265" s="2">
         <v>7</v>
       </c>
@@ -8821,7 +8815,7 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C267" s="2">
         <v>7</v>
       </c>
@@ -8840,7 +8834,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C268" s="2">
         <v>7</v>
       </c>
@@ -8859,7 +8853,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>518</v>
       </c>
@@ -8907,7 +8901,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C271" s="2">
         <v>7</v>
       </c>
@@ -8926,7 +8920,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C272" s="2">
         <v>8</v>
       </c>
@@ -8945,7 +8939,7 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C273" s="2">
         <v>8</v>
       </c>
@@ -8964,7 +8958,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C274" s="2">
         <v>8</v>
       </c>
@@ -9007,7 +9001,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C276" s="2">
         <v>8</v>
       </c>
@@ -9026,7 +9020,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C277" s="2">
         <v>8</v>
       </c>
@@ -9045,7 +9039,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C278" s="2">
         <v>8</v>
       </c>
@@ -9064,7 +9058,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C279" s="2">
         <v>8</v>
       </c>
@@ -9107,7 +9101,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C281" s="2">
         <v>8</v>
       </c>
@@ -9126,7 +9120,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C282" s="2">
         <v>8</v>
       </c>
@@ -9193,7 +9187,7 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C285" s="2">
         <v>8</v>
       </c>
@@ -9212,7 +9206,7 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C286" s="2">
         <v>8</v>
       </c>
@@ -9231,7 +9225,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C287" s="2">
         <v>8</v>
       </c>
@@ -9250,7 +9244,7 @@
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C288" s="2">
         <v>8</v>
       </c>
@@ -9269,7 +9263,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>518</v>
       </c>
@@ -9293,7 +9287,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C290" s="2">
         <v>8</v>
       </c>
@@ -9312,7 +9306,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C291" s="2">
         <v>8</v>
       </c>
@@ -9355,7 +9349,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C293" s="2">
         <v>8</v>
       </c>
@@ -9374,7 +9368,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C294" s="2">
         <v>8</v>
       </c>
@@ -9393,7 +9387,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C295" s="2">
         <v>8</v>
       </c>
@@ -9412,7 +9406,7 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C296" s="2">
         <v>8</v>
       </c>
@@ -9455,7 +9449,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C298" s="2">
         <v>8</v>
       </c>
@@ -9474,7 +9468,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C299" s="2">
         <v>8</v>
       </c>
@@ -9493,7 +9487,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C300" s="2">
         <v>8</v>
       </c>
@@ -9532,7 +9526,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>518</v>
       </c>
@@ -9554,7 +9548,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C303" s="2">
         <v>8</v>
       </c>
@@ -9573,7 +9567,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C304" s="2">
         <v>8</v>
       </c>
@@ -9592,7 +9586,7 @@
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C305" s="2">
         <v>9</v>
       </c>
@@ -9611,7 +9605,7 @@
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C306" s="2">
         <v>9</v>
       </c>
@@ -9630,7 +9624,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C307" s="2">
         <v>9</v>
       </c>
@@ -9649,7 +9643,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>518</v>
       </c>
@@ -9673,7 +9667,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C309" s="2">
         <v>9</v>
       </c>
@@ -9716,7 +9710,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C311" s="2">
         <v>9</v>
       </c>
@@ -9735,7 +9729,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C312" s="2">
         <v>9</v>
       </c>
@@ -9754,7 +9748,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C313" s="2">
         <v>9</v>
       </c>
@@ -9773,7 +9767,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C314" s="2">
         <v>9</v>
       </c>
@@ -9816,7 +9810,7 @@
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C316" s="2">
         <v>9</v>
       </c>
@@ -9835,7 +9829,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C317" s="2">
         <v>9</v>
       </c>
@@ -9878,7 +9872,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C319" s="2">
         <v>9</v>
       </c>
@@ -9921,7 +9915,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C321" s="2">
         <v>9</v>
       </c>
@@ -9940,7 +9934,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>518</v>
       </c>
@@ -9964,7 +9958,7 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C323" s="2">
         <v>9</v>
       </c>
@@ -9983,7 +9977,7 @@
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C324" s="2">
         <v>9</v>
       </c>
@@ -10002,7 +9996,7 @@
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C325" s="2">
         <v>9</v>
       </c>
@@ -10021,7 +10015,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C326" s="2">
         <v>9</v>
       </c>
@@ -10040,7 +10034,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C327" s="2">
         <v>9</v>
       </c>
@@ -10059,7 +10053,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C328" s="2">
         <v>9</v>
       </c>
@@ -10078,7 +10072,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C329" s="2">
         <v>9</v>
       </c>
@@ -10121,7 +10115,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C331" s="2">
         <v>9</v>
       </c>
@@ -10164,7 +10158,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C333" s="2">
         <v>9</v>
       </c>
@@ -10183,7 +10177,7 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C334" s="2">
         <v>9</v>
       </c>
@@ -10226,7 +10220,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C336" s="2">
         <v>10</v>
       </c>
@@ -10245,7 +10239,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C337" s="2">
         <v>10</v>
       </c>
@@ -10264,7 +10258,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C338" s="2">
         <v>10</v>
       </c>
@@ -10307,7 +10301,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C340" s="2">
         <v>10</v>
       </c>
@@ -10326,7 +10320,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C341" s="2">
         <v>10</v>
       </c>
@@ -10345,7 +10339,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C342" s="2">
         <v>10</v>
       </c>
@@ -10364,7 +10358,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C343" s="2">
         <v>10</v>
       </c>
@@ -10385,7 +10379,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C344" s="2">
         <v>10</v>
       </c>
@@ -10404,7 +10398,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>518</v>
       </c>
@@ -10428,7 +10422,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C346" s="2">
         <v>10</v>
       </c>
@@ -10447,7 +10441,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C347" s="2">
         <v>10</v>
       </c>
@@ -10466,7 +10460,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C348" s="2">
         <v>10</v>
       </c>
@@ -10485,7 +10479,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C349" s="2">
         <v>10</v>
       </c>
@@ -10530,7 +10524,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C351" s="2">
         <v>10</v>
       </c>
@@ -10549,7 +10543,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C352" s="2">
         <v>10</v>
       </c>
@@ -10568,7 +10562,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C353" s="2">
         <v>10</v>
       </c>
@@ -10587,7 +10581,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C354" s="2">
         <v>10</v>
       </c>
@@ -10606,7 +10600,7 @@
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>518</v>
       </c>
@@ -10630,7 +10624,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C356" s="2">
         <v>10</v>
       </c>
@@ -10649,7 +10643,7 @@
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C357" s="2">
         <v>10</v>
       </c>
@@ -10668,7 +10662,7 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C358" s="2">
         <v>10</v>
       </c>
@@ -10689,7 +10683,7 @@
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C359" s="2">
         <v>10</v>
       </c>
@@ -10708,7 +10702,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>518</v>
       </c>
@@ -10734,7 +10728,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C361" s="2">
         <v>10</v>
       </c>
@@ -10753,7 +10747,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C362" s="2">
         <v>10</v>
       </c>
@@ -10772,7 +10766,7 @@
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C363" s="2">
         <v>10</v>
       </c>
@@ -10791,7 +10785,7 @@
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C364" s="2">
         <v>10</v>
       </c>
@@ -10856,7 +10850,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C367" s="2">
         <v>11</v>
       </c>
@@ -10875,7 +10869,7 @@
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C368" s="2">
         <v>11</v>
       </c>
@@ -10894,7 +10888,7 @@
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C369" s="2">
         <v>11</v>
       </c>
@@ -10913,7 +10907,7 @@
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C370" s="2">
         <v>11</v>
       </c>
@@ -10932,7 +10926,7 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C371" s="2">
         <v>11</v>
       </c>
@@ -10951,7 +10945,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>644</v>
       </c>
@@ -10975,7 +10969,7 @@
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C373" s="2">
         <v>11</v>
       </c>
@@ -10994,7 +10988,7 @@
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>644</v>
       </c>
@@ -11018,7 +11012,7 @@
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C375" s="2">
         <v>11</v>
       </c>
@@ -11061,7 +11055,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C377" s="2">
         <v>11</v>
       </c>
@@ -11104,7 +11098,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C379" s="2">
         <v>11</v>
       </c>
@@ -11123,7 +11117,7 @@
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>518</v>
       </c>
@@ -11147,7 +11141,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>518</v>
       </c>
@@ -11171,7 +11165,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C382" s="2">
         <v>11</v>
       </c>
@@ -11190,7 +11184,7 @@
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C383" s="2">
         <v>11</v>
       </c>
@@ -11209,7 +11203,7 @@
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C384" s="2">
         <v>11</v>
       </c>
@@ -11252,7 +11246,7 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C386" s="2">
         <v>11</v>
       </c>
@@ -11271,7 +11265,7 @@
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C387" s="2">
         <v>11</v>
       </c>
@@ -11290,7 +11284,7 @@
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C388" s="2">
         <v>11</v>
       </c>
@@ -11309,7 +11303,7 @@
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>518</v>
       </c>
@@ -11333,7 +11327,7 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C390" s="2">
         <v>11</v>
       </c>
@@ -11352,7 +11346,7 @@
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C391" s="2">
         <v>11</v>
       </c>
@@ -11371,7 +11365,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C392" s="2">
         <v>11</v>
       </c>
@@ -11390,7 +11384,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C393" s="2">
         <v>11</v>
       </c>
@@ -11433,7 +11427,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>518</v>
       </c>
@@ -11457,7 +11451,7 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C396" s="2">
         <v>12</v>
       </c>
@@ -11476,7 +11470,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C397" s="2">
         <v>12</v>
       </c>
@@ -11495,7 +11489,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C398" s="2">
         <v>12</v>
       </c>
@@ -11514,7 +11508,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C399" s="2">
         <v>12</v>
       </c>
@@ -11533,7 +11527,7 @@
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C400" s="2">
         <v>12</v>
       </c>
@@ -11600,7 +11594,7 @@
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C403" s="2">
         <v>12</v>
       </c>
@@ -11619,7 +11613,7 @@
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C404" s="2">
         <v>12</v>
       </c>
@@ -11638,7 +11632,7 @@
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>518</v>
       </c>
@@ -11662,7 +11656,7 @@
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C406" s="2">
         <v>12</v>
       </c>
@@ -11703,7 +11697,7 @@
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C408" s="2">
         <v>12</v>
       </c>
@@ -11722,7 +11716,7 @@
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C409" s="2">
         <v>12</v>
       </c>
@@ -11741,7 +11735,7 @@
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C410" s="2">
         <v>12</v>
       </c>
@@ -11760,7 +11754,7 @@
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C411" s="2">
         <v>12</v>
       </c>
@@ -11779,7 +11773,7 @@
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C412" s="2">
         <v>12</v>
       </c>
@@ -11822,7 +11816,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C414" s="2">
         <v>12</v>
       </c>
@@ -11841,7 +11835,7 @@
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C415" s="2">
         <v>12</v>
       </c>
@@ -11860,7 +11854,7 @@
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C416" s="2">
         <v>12</v>
       </c>
@@ -11879,7 +11873,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C417" s="2">
         <v>12</v>
       </c>
@@ -11898,7 +11892,7 @@
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C418" s="2">
         <v>12</v>
       </c>
@@ -11917,7 +11911,7 @@
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C419" s="2">
         <v>12</v>
       </c>
@@ -12032,7 +12026,7 @@
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C424" s="2">
         <v>12</v>
       </c>
@@ -12051,7 +12045,7 @@
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C425" s="2">
         <v>12</v>
       </c>
@@ -12118,7 +12112,7 @@
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="11"/>
       <c r="B428" s="11"/>
       <c r="C428" s="12"/>
@@ -12137,11 +12131,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="M14" sqref="M14"/>
+    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+      <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+      <autoFilter ref="A1:J409"/>
+    </customSheetView>
+    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="F11" sqref="F11"/>
+      <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <printOptions gridLines="1"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition ref="A2:A366"/>
@@ -12151,31 +12153,23 @@
     <customSheetView guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition descending="1" ref="A2:A366"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="F11" sqref="F11"/>
+    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="M14" sqref="M14"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition ref="A2:A366"/>
         </sortState>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
-      <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <printOptions gridLines="1"/>
-      <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId4"/>
-      <autoFilter ref="A1:J409"/>
     </customSheetView>
   </customSheetViews>
   <printOptions gridLines="1"/>

--- a/dataSamples/Fun Family Page A Day Data (v5).xlsx
+++ b/dataSamples/Fun Family Page A Day Data (v5).xlsx
@@ -9,52 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PAGES" sheetId="1" r:id="rId1"/>
-    <sheet name="HOLIDAYS" sheetId="5" r:id="rId2"/>
+    <sheet name="Extra Quotes" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HOLIDAYS!$A$3:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAGES!$A$5:$H$428</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">HOLIDAYS!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">PAGES!$5:$5</definedName>
-    <definedName name="Z_1E205BAA_3839_4793_9AC9_6DFA286FC573_.wvu.FilterData" localSheetId="1" hidden="1">HOLIDAYS!$A$3:$J$48</definedName>
     <definedName name="Z_1E205BAA_3839_4793_9AC9_6DFA286FC573_.wvu.FilterData" localSheetId="0" hidden="1">PAGES!$A$5:$H$428</definedName>
-    <definedName name="Z_1E205BAA_3839_4793_9AC9_6DFA286FC573_.wvu.PrintTitles" localSheetId="1" hidden="1">HOLIDAYS!$3:$3</definedName>
     <definedName name="Z_1E205BAA_3839_4793_9AC9_6DFA286FC573_.wvu.PrintTitles" localSheetId="0" hidden="1">PAGES!$5:$5</definedName>
-    <definedName name="Z_36663624_9048_4258_8F9E_F8388303C4CD_.wvu.Cols" localSheetId="1" hidden="1">HOLIDAYS!#REF!</definedName>
     <definedName name="Z_36663624_9048_4258_8F9E_F8388303C4CD_.wvu.Cols" localSheetId="0" hidden="1">PAGES!#REF!</definedName>
-    <definedName name="Z_36663624_9048_4258_8F9E_F8388303C4CD_.wvu.FilterData" localSheetId="1" hidden="1">HOLIDAYS!$A$3:$J$48</definedName>
     <definedName name="Z_36663624_9048_4258_8F9E_F8388303C4CD_.wvu.FilterData" localSheetId="0" hidden="1">PAGES!$A$5:$H$428</definedName>
-    <definedName name="Z_36663624_9048_4258_8F9E_F8388303C4CD_.wvu.PrintTitles" localSheetId="1" hidden="1">HOLIDAYS!$3:$3</definedName>
     <definedName name="Z_36663624_9048_4258_8F9E_F8388303C4CD_.wvu.PrintTitles" localSheetId="0" hidden="1">PAGES!$5:$5</definedName>
-    <definedName name="Z_9C0311F0_DF70_44FD_BFCF_C4DBE8DC2CBB_.wvu.Cols" localSheetId="1" hidden="1">HOLIDAYS!#REF!</definedName>
     <definedName name="Z_9C0311F0_DF70_44FD_BFCF_C4DBE8DC2CBB_.wvu.Cols" localSheetId="0" hidden="1">PAGES!#REF!</definedName>
-    <definedName name="Z_9C0311F0_DF70_44FD_BFCF_C4DBE8DC2CBB_.wvu.FilterData" localSheetId="1" hidden="1">HOLIDAYS!$A$3:$J$48</definedName>
     <definedName name="Z_9C0311F0_DF70_44FD_BFCF_C4DBE8DC2CBB_.wvu.FilterData" localSheetId="0" hidden="1">PAGES!$A$5:$H$428</definedName>
-    <definedName name="Z_9C0311F0_DF70_44FD_BFCF_C4DBE8DC2CBB_.wvu.PrintTitles" localSheetId="1" hidden="1">HOLIDAYS!$3:$3</definedName>
     <definedName name="Z_9C0311F0_DF70_44FD_BFCF_C4DBE8DC2CBB_.wvu.PrintTitles" localSheetId="0" hidden="1">PAGES!$5:$5</definedName>
-    <definedName name="Z_FBFDDEB8_09C3_4C2E_8A82_FA3F5F43B9A0_.wvu.Cols" localSheetId="1" hidden="1">HOLIDAYS!#REF!</definedName>
     <definedName name="Z_FBFDDEB8_09C3_4C2E_8A82_FA3F5F43B9A0_.wvu.Cols" localSheetId="0" hidden="1">PAGES!#REF!</definedName>
-    <definedName name="Z_FBFDDEB8_09C3_4C2E_8A82_FA3F5F43B9A0_.wvu.FilterData" localSheetId="1" hidden="1">HOLIDAYS!$A$3:$J$48</definedName>
     <definedName name="Z_FBFDDEB8_09C3_4C2E_8A82_FA3F5F43B9A0_.wvu.FilterData" localSheetId="0" hidden="1">PAGES!$A$5:$H$428</definedName>
-    <definedName name="Z_FBFDDEB8_09C3_4C2E_8A82_FA3F5F43B9A0_.wvu.PrintTitles" localSheetId="1" hidden="1">HOLIDAYS!$3:$3</definedName>
     <definedName name="Z_FBFDDEB8_09C3_4C2E_8A82_FA3F5F43B9A0_.wvu.PrintTitles" localSheetId="0" hidden="1">PAGES!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Owner - Personal View" guid="{36663624-9048-4258-8F9E-F8388303C4CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="980" activeSheetId="1"/>
+    <customWorkbookView name="Rebecca Gerhardt - Personal View" guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1244" windowHeight="540" activeSheetId="1"/>
+    <customWorkbookView name="Windows User - Personal View" guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="854" activeSheetId="1"/>
     <customWorkbookView name="Barry Gerhardt - Personal View" guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" mergeInterval="0" personalView="1" xWindow="333" yWindow="59" windowWidth="1516" windowHeight="897" activeSheetId="1"/>
-    <customWorkbookView name="Windows User - Personal View" guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="854" activeSheetId="1"/>
-    <customWorkbookView name="Rebecca Gerhardt - Personal View" guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1244" windowHeight="540" activeSheetId="1"/>
-    <customWorkbookView name="Owner - Personal View" guid="{36663624-9048-4258-8F9E-F8388303C4CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="980" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="744">
   <si>
     <t>New Year’s Day</t>
   </si>
@@ -506,9 +493,6 @@
     <t>What? Like, it's hard?</t>
   </si>
   <si>
-    <t>Ricky Bobby</t>
-  </si>
-  <si>
     <t>Do we need to go to the ladies room?</t>
   </si>
   <si>
@@ -747,9 +731,6 @@
   </si>
   <si>
     <t>You are a sad, strange little man, and you have my pity.</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
   </si>
   <si>
     <t>Hussy!</t>
@@ -902,11 +883,6 @@
     <t>Forest Gump</t>
   </si>
   <si>
-    <t>Attention, attention!
-Lucky, lucky!
-For the next ten minutes, everything comes with pancakes.</t>
-  </si>
-  <si>
     <t>Laverne DeFazio</t>
   </si>
   <si>
@@ -1252,10 +1228,6 @@
 snowball’s chance in Hell.</t>
   </si>
   <si>
-    <t>You will have a prosperous year 
-… in bed.</t>
-  </si>
-  <si>
     <t>How are you feeling?
 Once all over and twice 
 if they'll let me.</t>
@@ -1708,9 +1680,6 @@
     <t>National Fruitcake Day</t>
   </si>
   <si>
-    <t>Bacon Day</t>
-  </si>
-  <si>
     <t>#DisneyWorld2017</t>
   </si>
   <si>
@@ -1748,9 +1717,6 @@
     <t>BIRTHDAY</t>
   </si>
   <si>
-    <t>EVENT</t>
-  </si>
-  <si>
     <t>SAYING</t>
   </si>
   <si>
@@ -1758,29 +1724,12 @@
   </si>
   <si>
     <t>COMMENT</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>I have a dream that one day this nation will rise up and live out the true meaning of its creed: We hold these truths to be self-evident: that all men are created equal.
- I have a dream that one day on the red hills of Georgia the sons of former slaves and the sons of former slave owners will be able to sit down 
-together at a table of brotherhood.</t>
   </si>
   <si>
     <t>The night that Paddy Murphy died, I never will forget.  The Irish all got Stinking drunk, and some aren't sober yet.  The one thing that they did that night that filled my heart with fear, they took the ice right off the corpse and put it on the beer!
 Oh, that's how we showed our respect for Paddy Murphy, that's how we showed our honor and our pride.  Oh, baby!  That's how we showed our respect to Paddy Murphy, on the night that Paddy died!</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>4 4</t>
-  </si>
-  <si>
-    <t>4 5</t>
-  </si>
-  <si>
     <t>Fourth Thursday in November</t>
   </si>
   <si>
@@ -1793,58 +1742,28 @@
     <t>Easter</t>
   </si>
   <si>
-    <t>2 0</t>
-  </si>
-  <si>
     <t>Mother's Day: Second Sunday in May</t>
-  </si>
-  <si>
-    <t>3 0</t>
   </si>
   <si>
     <t>First day of 
 Summer</t>
   </si>
   <si>
-    <t>ListOfDates</t>
-  </si>
-  <si>
-    <t>2017-06-21 2018-06-21 2019-06-21 2020-06-20</t>
-  </si>
-  <si>
     <t>Dead Dad Day</t>
   </si>
   <si>
-    <t>2016-09-22 2017-09-22 2018-09-23 2019-09-23 2020-09-22</t>
-  </si>
-  <si>
-    <t>2016-12-21 2017-12-21 2018-12-21 2019-12-22 2020-12-21</t>
-  </si>
-  <si>
     <t>Leap Day</t>
   </si>
   <si>
-    <t>1 0</t>
-  </si>
-  <si>
     <t>Super Bowl Sunday</t>
   </si>
   <si>
     <t>Super Bowl is first Sunday in February</t>
   </si>
   <si>
-    <t>3 1</t>
-  </si>
-  <si>
     <t>Martin Luthor King Day is third Monday of January</t>
   </si>
   <si>
-    <t>SpecificYears</t>
-  </si>
-  <si>
-    <t>1937 4</t>
-  </si>
-  <si>
     <t>Inauguration Day</t>
   </si>
   <si>
@@ -1854,18 +1773,6 @@
     <t>President's Day is third Monday of February (can occur Feb 15 - 21 inclusive)</t>
   </si>
   <si>
-    <t>LastWeekdayOfMonth</t>
-  </si>
-  <si>
-    <t>WeekdayOfMonth</t>
-  </si>
-  <si>
-    <t>1 1</t>
-  </si>
-  <si>
-    <t>2 1</t>
-  </si>
-  <si>
     <t>Columbus Day is second Monday in October</t>
   </si>
   <si>
@@ -1905,9 +1812,6 @@
     <t>That's one small step for a man, one giant leap for mankind.</t>
   </si>
   <si>
-    <t>4 0</t>
-  </si>
-  <si>
     <t>Parent's Day is the fourth Sunday in July</t>
   </si>
   <si>
@@ -1917,25 +1821,10 @@
     <t>Mary Shelley (author of Frankenstein) was born August 30, 1797</t>
   </si>
   <si>
-    <t>2016-09-11 2017-09-10 2018-09-09 2019-09-08 2020-09-13 2021-09-12 2022-09-11</t>
-  </si>
-  <si>
     <t>Actually not fixed. Rule is "if it falls on a weekend, it is the closest day. This isn't a rule I've implemented. Closest is WeekdayOnOrAfter</t>
   </si>
   <si>
-    <t>1 4</t>
-  </si>
-  <si>
     <t>Men Make Dinner Day is the first Thursday in November</t>
-  </si>
-  <si>
-    <t>2016-12-24 2017-12-12 2018-12-02 2019-12-22 2020-12-10</t>
-  </si>
-  <si>
-    <t>Bacon Day is the Saturday before Labor day</t>
-  </si>
-  <si>
-    <t>2016-11-08 2017-11-07 2018-11-06 2019-11-05 2020-11-03</t>
   </si>
   <si>
     <t>She’s a biddy, 
@@ -1963,61 +1852,22 @@
     <t>Grannyisms</t>
   </si>
   <si>
-    <t>2017-01-13 2017-10-13 2018-04-13 2018-07-13 2019-09-13 2019-12-13 2020-03-13 2020-11-13</t>
-  </si>
-  <si>
     <t>This page has nothing to say</t>
   </si>
   <si>
     <t>Alexa</t>
   </si>
   <si>
-    <t>HOLIDAYS AND EVENTS (Script finds all that apply and merges based on first found to a single integrated record for the selected date)</t>
-  </si>
-  <si>
     <t>Last Monday in May</t>
   </si>
   <si>
-    <t>2016-03-27 2017-04-16 2018-04-01 2019-04-21 2020-04-12 2021-04-04 2022-04-17</t>
-  </si>
-  <si>
-    <t>2016-03-25 2017-04-14 2018-03-30 2019-04-19 2020-04-10 2021-04-02 2022-04-15</t>
-  </si>
-  <si>
-    <t>2016-05-05 2017-05-25 2018-05-10 2019-05-30 2020-05-21 2021-05-13 2022-05-26</t>
-  </si>
-  <si>
     <t>Ascension Thursday</t>
   </si>
   <si>
     <t>Ascension Sunday</t>
   </si>
   <si>
-    <t>2016-05-08 2017-05-28 2018-05-13 2019-06-02 2020-05-24 2021-05-16 2022-05-29</t>
-  </si>
-  <si>
-    <t>2016-03-20 2017-04-09 2018-03-25 2019-04-14 2020-04-05 2021-03-28 2022-04-10</t>
-  </si>
-  <si>
-    <t>2016-02-10 2017-03-01 2018-02-14 2019-03-06 2020-02-26 2021-02-17 2022-03-02</t>
-  </si>
-  <si>
-    <t>2016-02-09 2017-02-28 2018-02-13 2019-03-05 2020-02-25 2021-02-16 2022-03-01</t>
-  </si>
-  <si>
-    <t>2 0 -2</t>
-  </si>
-  <si>
-    <t>1 1 -2</t>
-  </si>
-  <si>
     <t>Military spouses day is two days before Mother's Day</t>
-  </si>
-  <si>
-    <t>2016-11-27 2017-12-03 2018-12-02 2019-12-01 2020-11-29</t>
-  </si>
-  <si>
-    <t>2016-10-02 2017-09-20 2018-09-09 2019-09-29 2020-09-18 2021-09-06</t>
   </si>
   <si>
     <t>Excuse me sir, where do you keep your nuts?</t>
@@ -2553,6 +2403,12 @@
   </si>
   <si>
     <t>Buzz Lightyear from the movie Toy Story</t>
+  </si>
+  <si>
+    <t>All our dreams can some true if we have the courage to pursue them.</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2658,29 +2514,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2897,66 +2736,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PAGES" displayName="PAGES" ref="A5:K428" tableType="xml" totalsRowShown="0">
   <autoFilter ref="A5:K428"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="13">
+    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="7">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:TYPE" xmlDataType="token"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="12">
+    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:SPECIAL" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="11">
+    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:MONTH" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="10">
+    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:DAY" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="9">
+    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:YEAR" xmlDataType="positiveInteger"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="ns1:NAME" name="NAME">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:NAME" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="8">
+    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:SAYING" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="ns1:AUTHOR" name="AUTHOR">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:AUTHOR" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:WEB" name="WEB" dataDxfId="7">
+    <tableColumn id="7" uniqueName="ns1:WEB" name="WEB" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:WEB" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:SPOKEN" name="SPOKEN" dataDxfId="6">
+    <tableColumn id="8" uniqueName="ns1:SPOKEN" name="SPOKEN" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:SPOKEN" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="ns1:COMMENT" name="COMMENT">
       <xmlColumnPr mapId="1" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:COMMENT" xmlDataType="string"/>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="HOLIDAYS" displayName="HOLIDAYS" ref="A3:K48" totalsRowShown="0">
-  <autoFilter ref="A3:K48"/>
-  <sortState ref="A2:K45">
-    <sortCondition ref="A2:A45"/>
-    <sortCondition ref="B2:B45"/>
-    <sortCondition ref="C2:C45"/>
-    <sortCondition ref="D2:D45"/>
-    <sortCondition ref="E2:E45"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" name="TYPE" dataDxfId="5"/>
-    <tableColumn id="2" name="SPECIAL" dataDxfId="4"/>
-    <tableColumn id="3" name="MONTH" dataDxfId="3"/>
-    <tableColumn id="4" name="DAY" dataDxfId="2"/>
-    <tableColumn id="5" name="YEAR" dataDxfId="1"/>
-    <tableColumn id="6" name="HOLIDAY"/>
-    <tableColumn id="7" name="BIRTHDAY"/>
-    <tableColumn id="8" name="EVENT"/>
-    <tableColumn id="9" name="SAYING" dataDxfId="0"/>
-    <tableColumn id="10" name="AUTHOR"/>
-    <tableColumn id="11" name="COMMENT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3303,8 +3115,8 @@
   </sheetPr>
   <dimension ref="A1:P428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
       <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
@@ -3327,20 +3139,20 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="G1" s="3"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2"/>
@@ -3355,49 +3167,49 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" t="s">
         <v>515</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" t="s">
+        <v>633</v>
+      </c>
+      <c r="J5" t="s">
+        <v>634</v>
+      </c>
+      <c r="K5" t="s">
         <v>516</v>
-      </c>
-      <c r="F5" t="s">
-        <v>657</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="H5" t="s">
-        <v>521</v>
-      </c>
-      <c r="I5" t="s">
-        <v>677</v>
-      </c>
-      <c r="J5" t="s">
-        <v>678</v>
-      </c>
-      <c r="K5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="1"/>
@@ -3407,17 +3219,17 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>110</v>
@@ -3428,48 +3240,48 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="1" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="1" t="s">
@@ -3480,38 +3292,38 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>619</v>
+        <v>575</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="1" t="s">
@@ -3525,17 +3337,17 @@
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>621</v>
+        <v>577</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>120</v>
@@ -3546,10 +3358,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
@@ -3563,14 +3375,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="1"/>
@@ -3580,14 +3392,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="1"/>
@@ -3597,14 +3409,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="1"/>
@@ -3614,10 +3426,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="1" t="s">
@@ -3631,14 +3443,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="1"/>
@@ -3648,14 +3460,14 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>
@@ -3665,14 +3477,14 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="4" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="1"/>
@@ -3682,10 +3494,10 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3695,23 +3507,23 @@
         <v>9</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -3721,19 +3533,19 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -3745,10 +3557,10 @@
         <v>2017</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>114</v>
@@ -3759,7 +3571,7 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -3771,10 +3583,10 @@
         <v>2018</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>114</v>
@@ -3785,7 +3597,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
@@ -3797,10 +3609,10 @@
         <v>2019</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>114</v>
@@ -3811,7 +3623,7 @@
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -3823,10 +3635,10 @@
         <v>2020</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>114</v>
@@ -3837,7 +3649,7 @@
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -3849,13 +3661,13 @@
         <v>2021</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3863,29 +3675,29 @@
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -3897,7 +3709,7 @@
         <v>2017</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -3907,7 +3719,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
@@ -3919,7 +3731,7 @@
         <v>2018</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -3929,10 +3741,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
@@ -3942,30 +3754,30 @@
         <v>10</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="1" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -3975,10 +3787,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
@@ -3991,7 +3803,7 @@
         <v>115</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>110</v>
@@ -4002,10 +3814,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -4019,37 +3831,37 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -4067,37 +3879,37 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="C39" s="2">
         <v>6</v>
@@ -4107,10 +3919,10 @@
         <v>18</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -4118,54 +3930,54 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
       <c r="C40" s="2">
         <v>7</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
       <c r="C42" s="2">
         <v>9</v>
@@ -4182,23 +3994,23 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="C43" s="2">
         <v>9</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="1" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -4206,10 +4018,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
       <c r="C44" s="2">
         <v>10</v>
@@ -4227,63 +4039,63 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="C45" s="2">
         <v>11</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="1" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="C46" s="2">
         <v>11</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="C47" s="2">
         <v>11</v>
@@ -4293,7 +4105,7 @@
         <v>108</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>109</v>
@@ -4301,34 +4113,34 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="C48" s="2">
         <v>11</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -4341,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -4360,10 +4172,10 @@
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4371,7 +4183,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -4381,7 +4193,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>75</v>
@@ -4395,7 +4207,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -4419,7 +4231,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -4429,7 +4241,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>31</v>
@@ -4451,10 +4263,10 @@
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>783</v>
+        <v>739</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -4462,7 +4274,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -4494,7 +4306,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>110</v>
@@ -4532,10 +4344,10 @@
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -4551,7 +4363,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>110</v>
@@ -4570,7 +4382,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>136</v>
@@ -4600,7 +4412,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -4610,7 +4422,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>55</v>
@@ -4624,7 +4436,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -4634,10 +4446,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="1" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>124</v>
@@ -4667,7 +4479,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -4677,13 +4489,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="1" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4748,7 +4560,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -4758,13 +4570,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>784</v>
+        <v>740</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -4772,7 +4584,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -4787,10 +4599,10 @@
         <v>136</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -4798,7 +4610,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -4808,13 +4620,13 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -4830,7 +4642,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>110</v>
@@ -4849,7 +4661,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>110</v>
@@ -4868,7 +4680,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>110</v>
@@ -4887,7 +4699,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>136</v>
@@ -4925,10 +4737,10 @@
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4936,7 +4748,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -4946,13 +4758,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4968,7 +4780,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>124</v>
@@ -4979,7 +4791,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -4989,7 +4801,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>35</v>
@@ -5011,10 +4823,10 @@
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="6" t="s">
-        <v>780</v>
+        <v>736</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -5022,7 +4834,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
@@ -5032,13 +4844,13 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -5046,7 +4858,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
@@ -5056,13 +4868,13 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>777</v>
+        <v>733</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>778</v>
+        <v>734</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -5078,7 +4890,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>136</v>
@@ -5097,7 +4909,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>110</v>
@@ -5154,10 +4966,10 @@
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="6" t="s">
-        <v>689</v>
+        <v>645</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>782</v>
+        <v>738</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -5173,10 +4985,10 @@
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>776</v>
+        <v>732</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -5203,7 +5015,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C91" s="2">
         <v>2</v>
@@ -5213,10 +5025,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>110</v>
@@ -5235,7 +5047,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>110</v>
@@ -5254,10 +5066,10 @@
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -5273,10 +5085,10 @@
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -5284,7 +5096,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
@@ -5297,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5314,10 +5126,10 @@
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -5333,10 +5145,10 @@
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>775</v>
+        <v>731</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -5352,7 +5164,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>110</v>
@@ -5371,10 +5183,10 @@
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -5390,7 +5202,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>110</v>
@@ -5409,10 +5221,10 @@
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="6" t="s">
-        <v>685</v>
+        <v>641</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -5428,10 +5240,10 @@
       <c r="E102" s="2"/>
       <c r="F102" s="1"/>
       <c r="G102" s="6" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -5439,7 +5251,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C103" s="2">
         <v>2</v>
@@ -5449,10 +5261,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>110</v>
@@ -5471,10 +5283,10 @@
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="G104" s="6" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>687</v>
+        <v>643</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -5490,7 +5302,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="1"/>
       <c r="G105" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>110</v>
@@ -5509,10 +5321,10 @@
       <c r="E106" s="2"/>
       <c r="F106" s="1"/>
       <c r="G106" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -5547,10 +5359,10 @@
       <c r="E108" s="2"/>
       <c r="F108" s="1"/>
       <c r="G108" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -5558,7 +5370,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C109" s="2">
         <v>2</v>
@@ -5582,7 +5394,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C110" s="2">
         <v>2</v>
@@ -5592,13 +5404,13 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>691</v>
+        <v>647</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>759</v>
+        <v>715</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -5614,10 +5426,10 @@
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
       <c r="G111" s="6" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -5625,7 +5437,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
@@ -5635,7 +5447,7 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="1"/>
@@ -5645,7 +5457,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C113" s="2">
         <v>3</v>
@@ -5655,13 +5467,13 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -5669,7 +5481,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C114" s="2">
         <v>3</v>
@@ -5679,13 +5491,13 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -5701,7 +5513,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="1"/>
       <c r="G115" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>110</v>
@@ -5720,10 +5532,10 @@
       <c r="E116" s="2"/>
       <c r="F116" s="1"/>
       <c r="G116" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -5731,7 +5543,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C117" s="2">
         <v>3</v>
@@ -5741,13 +5553,13 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="1" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -5763,10 +5575,10 @@
       <c r="E118" s="2"/>
       <c r="F118" s="1"/>
       <c r="G118" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -5801,7 +5613,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="1"/>
       <c r="G120" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>110</v>
@@ -5820,7 +5632,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="1"/>
       <c r="G121" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>110</v>
@@ -5858,7 +5670,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="1"/>
       <c r="G123" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>110</v>
@@ -5888,7 +5700,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C125" s="2">
         <v>3</v>
@@ -5898,13 +5710,13 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="1" t="s">
-        <v>693</v>
+        <v>649</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -5939,7 +5751,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="1"/>
       <c r="G127" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>110</v>
@@ -5950,7 +5762,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C128" s="2">
         <v>3</v>
@@ -5963,7 +5775,7 @@
         <v>107</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5972,7 +5784,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C129" s="2">
         <v>3</v>
@@ -5982,10 +5794,10 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -6002,7 +5814,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="1"/>
       <c r="G130" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>130</v>
@@ -6021,10 +5833,10 @@
       <c r="E131" s="2"/>
       <c r="F131" s="1"/>
       <c r="G131" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -6032,7 +5844,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C132" s="2">
         <v>3</v>
@@ -6042,7 +5854,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>44</v>
@@ -6053,7 +5865,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -6066,10 +5878,10 @@
       <c r="E133" s="2"/>
       <c r="F133" s="1"/>
       <c r="G133" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -6077,7 +5889,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C134" s="2">
         <v>3</v>
@@ -6087,10 +5899,10 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>110</v>
@@ -6109,7 +5921,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="1"/>
       <c r="G135" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>110</v>
@@ -6128,7 +5940,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="1"/>
       <c r="G136" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>137</v>
@@ -6166,10 +5978,10 @@
       <c r="E138" s="2"/>
       <c r="F138" s="1"/>
       <c r="G138" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>774</v>
+        <v>730</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -6177,7 +5989,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C139" s="2">
         <v>3</v>
@@ -6187,13 +5999,13 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -6237,7 +6049,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="P141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -6250,10 +6062,10 @@
       <c r="E142" s="2"/>
       <c r="F142" s="1"/>
       <c r="G142" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -6261,7 +6073,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C143" s="2">
         <v>3</v>
@@ -6271,7 +6083,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="1" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>40</v>
@@ -6285,7 +6097,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C144" s="2">
         <v>4</v>
@@ -6309,7 +6121,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C145" s="2">
         <v>4</v>
@@ -6319,10 +6131,10 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>141</v>
@@ -6341,7 +6153,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="1"/>
       <c r="G146" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>110</v>
@@ -6360,10 +6172,10 @@
       <c r="E147" s="2"/>
       <c r="F147" s="1"/>
       <c r="G147" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -6379,7 +6191,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="1"/>
       <c r="G148" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>141</v>
@@ -6398,10 +6210,10 @@
       <c r="E149" s="2"/>
       <c r="F149" s="1"/>
       <c r="G149" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -6436,10 +6248,10 @@
       <c r="E151" s="2"/>
       <c r="F151" s="1"/>
       <c r="G151" s="6" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>773</v>
+        <v>729</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -6455,7 +6267,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="1"/>
       <c r="G152" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>110</v>
@@ -6466,7 +6278,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C153" s="2">
         <v>4</v>
@@ -6476,7 +6288,7 @@
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>134</v>
@@ -6490,7 +6302,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C154" s="2">
         <v>4</v>
@@ -6514,7 +6326,7 @@
     </row>
     <row r="155" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C155" s="2">
         <v>4</v>
@@ -6527,7 +6339,7 @@
         <v>137</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>110</v>
@@ -6546,10 +6358,10 @@
       <c r="E156" s="2"/>
       <c r="F156" s="1"/>
       <c r="G156" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -6565,10 +6377,10 @@
       <c r="E157" s="2"/>
       <c r="F157" s="1"/>
       <c r="G157" s="6" t="s">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -6584,10 +6396,10 @@
       <c r="E158" s="2"/>
       <c r="F158" s="1"/>
       <c r="G158" s="6" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -6603,10 +6415,10 @@
       <c r="E159" s="2"/>
       <c r="F159" s="1"/>
       <c r="G159" s="6" t="s">
-        <v>698</v>
+        <v>654</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -6641,10 +6453,10 @@
       <c r="E161" s="2"/>
       <c r="F161" s="1"/>
       <c r="G161" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H161" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -6679,10 +6491,10 @@
       <c r="E163" s="2"/>
       <c r="F163" s="1"/>
       <c r="G163" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>771</v>
+        <v>727</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -6709,7 +6521,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C165" s="2">
         <v>4</v>
@@ -6719,13 +6531,13 @@
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G165" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -6741,7 +6553,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="1"/>
       <c r="G166" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>130</v>
@@ -6752,7 +6564,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C167" s="2">
         <v>4</v>
@@ -6762,10 +6574,10 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="1" t="s">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>110</v>
@@ -6784,10 +6596,10 @@
       <c r="E168" s="2"/>
       <c r="F168" s="1"/>
       <c r="G168" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -6803,10 +6615,10 @@
       <c r="E169" s="2"/>
       <c r="F169" s="1"/>
       <c r="G169" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>770</v>
+        <v>726</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -6833,7 +6645,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C171" s="2">
         <v>4</v>
@@ -6843,7 +6655,7 @@
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>42</v>
@@ -6865,7 +6677,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="1"/>
       <c r="G172" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>110</v>
@@ -6884,10 +6696,10 @@
       <c r="E173" s="2"/>
       <c r="F173" s="1"/>
       <c r="G173" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H173" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -6895,7 +6707,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C174" s="2">
         <v>5</v>
@@ -6905,7 +6717,7 @@
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="1"/>
@@ -6915,7 +6727,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C175" s="2">
         <v>5</v>
@@ -6925,10 +6737,10 @@
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="1" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>110</v>
@@ -6939,7 +6751,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -6951,10 +6763,10 @@
         <v>1985</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>110</v>
@@ -6973,10 +6785,10 @@
       <c r="E177" s="2"/>
       <c r="F177" s="1"/>
       <c r="G177" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -7003,7 +6815,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C179" s="2">
         <v>5</v>
@@ -7013,13 +6825,13 @@
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -7027,7 +6839,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C180" s="2">
         <v>5</v>
@@ -7051,7 +6863,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C181" s="2">
         <v>5</v>
@@ -7061,13 +6873,13 @@
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -7094,7 +6906,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C183" s="2">
         <v>5</v>
@@ -7104,13 +6916,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -7126,7 +6938,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="1"/>
       <c r="G184" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>130</v>
@@ -7145,7 +6957,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="1"/>
       <c r="G185" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>110</v>
@@ -7183,10 +6995,10 @@
       <c r="E187" s="2"/>
       <c r="F187" s="1"/>
       <c r="G187" s="6" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -7202,10 +7014,10 @@
       <c r="E188" s="2"/>
       <c r="F188" s="1"/>
       <c r="G188" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -7221,10 +7033,10 @@
       <c r="E189" s="2"/>
       <c r="F189" s="1"/>
       <c r="G189" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>767</v>
+        <v>723</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -7240,7 +7052,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="1"/>
       <c r="G190" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>110</v>
@@ -7251,7 +7063,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C191" s="2">
         <v>5</v>
@@ -7261,7 +7073,7 @@
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="4" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>50</v>
@@ -7275,7 +7087,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C192" s="2">
         <v>5</v>
@@ -7307,7 +7119,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="1"/>
       <c r="G193" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>122</v>
@@ -7318,7 +7130,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C194" s="2">
         <v>5</v>
@@ -7328,7 +7140,7 @@
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="4" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>24</v>
@@ -7350,7 +7162,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="1"/>
       <c r="G195" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>110</v>
@@ -7361,7 +7173,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C196" s="2">
         <v>5</v>
@@ -7371,10 +7183,10 @@
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="1" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>136</v>
@@ -7385,7 +7197,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C197" s="2">
         <v>5</v>
@@ -7395,10 +7207,10 @@
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>110</v>
@@ -7417,7 +7229,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="1"/>
       <c r="G198" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>110</v>
@@ -7436,10 +7248,10 @@
       <c r="E199" s="2"/>
       <c r="F199" s="1"/>
       <c r="G199" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -7455,10 +7267,10 @@
       <c r="E200" s="2"/>
       <c r="F200" s="1"/>
       <c r="G200" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -7493,10 +7305,10 @@
       <c r="E202" s="2"/>
       <c r="F202" s="1"/>
       <c r="G202" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -7512,7 +7324,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="1"/>
       <c r="G203" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>140</v>
@@ -7569,7 +7381,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="1"/>
       <c r="G206" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>110</v>
@@ -7580,7 +7392,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C207" s="2">
         <v>6</v>
@@ -7590,7 +7402,7 @@
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>79</v>
@@ -7612,7 +7424,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="1"/>
       <c r="G208" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>145</v>
@@ -7642,7 +7454,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C210" s="2">
         <v>6</v>
@@ -7652,10 +7464,10 @@
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>110</v>
@@ -7674,10 +7486,10 @@
       <c r="E211" s="2"/>
       <c r="F211" s="1"/>
       <c r="G211" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -7685,7 +7497,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C212" s="2">
         <v>6</v>
@@ -7695,19 +7507,19 @@
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C213" s="2">
         <v>6</v>
@@ -7739,10 +7551,10 @@
       <c r="E214" s="2"/>
       <c r="F214" s="1"/>
       <c r="G214" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -7750,7 +7562,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C215" s="2">
         <v>6</v>
@@ -7760,13 +7572,13 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>147</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -7782,10 +7594,10 @@
       <c r="E216" s="2"/>
       <c r="F216" s="1"/>
       <c r="G216" s="6" t="s">
-        <v>761</v>
+        <v>717</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>762</v>
+        <v>718</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -7801,7 +7613,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="1"/>
       <c r="G217" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>121</v>
@@ -7812,7 +7624,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C218" s="2">
         <v>6</v>
@@ -7822,7 +7634,7 @@
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>77</v>
@@ -7844,7 +7656,7 @@
       <c r="E219" s="2"/>
       <c r="F219" s="1"/>
       <c r="G219" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>110</v>
@@ -7863,10 +7675,10 @@
       <c r="E220" s="2"/>
       <c r="F220" s="1"/>
       <c r="G220" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>760</v>
+        <v>716</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7874,7 +7686,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C221" s="2">
         <v>6</v>
@@ -7898,7 +7710,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C222" s="2">
         <v>6</v>
@@ -7908,10 +7720,10 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>110</v>
@@ -7930,7 +7742,7 @@
       <c r="E223" s="2"/>
       <c r="F223" s="1"/>
       <c r="G223" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>137</v>
@@ -7949,7 +7761,7 @@
       <c r="E224" s="2"/>
       <c r="F224" s="1"/>
       <c r="G224" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>120</v>
@@ -7968,10 +7780,10 @@
       <c r="E225" s="2"/>
       <c r="F225" s="1"/>
       <c r="G225" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>759</v>
+        <v>715</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -8006,7 +7818,7 @@
       <c r="E227" s="2"/>
       <c r="F227" s="1"/>
       <c r="G227" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>110</v>
@@ -8017,7 +7829,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C228" s="2">
         <v>6</v>
@@ -8027,7 +7839,7 @@
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="4" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>123</v>
@@ -8068,7 +7880,7 @@
       <c r="E230" s="2"/>
       <c r="F230" s="1"/>
       <c r="G230" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>110</v>
@@ -8079,7 +7891,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C231" s="2">
         <v>6</v>
@@ -8089,7 +7901,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="1" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="G231" s="6" t="s">
         <v>129</v>
@@ -8111,10 +7923,10 @@
       <c r="E232" s="2"/>
       <c r="F232" s="1"/>
       <c r="G232" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -8122,7 +7934,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C233" s="2">
         <v>6</v>
@@ -8132,7 +7944,7 @@
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G233" s="6" t="s">
         <v>74</v>
@@ -8173,10 +7985,10 @@
       <c r="E235" s="2"/>
       <c r="F235" s="1"/>
       <c r="G235" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -8184,7 +7996,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C236" s="2">
         <v>6</v>
@@ -8194,13 +8006,13 @@
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>750</v>
+        <v>706</v>
       </c>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -8216,10 +8028,10 @@
       <c r="E237" s="2"/>
       <c r="F237" s="1"/>
       <c r="G237" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -8227,7 +8039,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C238" s="2">
         <v>7</v>
@@ -8237,7 +8049,7 @@
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G238" s="6" t="s">
         <v>48</v>
@@ -8259,7 +8071,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="1"/>
       <c r="G239" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>120</v>
@@ -8278,7 +8090,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="1"/>
       <c r="G240" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>139</v>
@@ -8289,7 +8101,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C241" s="2">
         <v>7</v>
@@ -8302,10 +8114,10 @@
         <v>5</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -8321,10 +8133,10 @@
       <c r="E242" s="2"/>
       <c r="F242" s="1"/>
       <c r="G242" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -8340,7 +8152,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="1"/>
       <c r="G243" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>110</v>
@@ -8351,7 +8163,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C244" s="2">
         <v>7</v>
@@ -8361,19 +8173,19 @@
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="1" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="G244" s="6"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C245" s="2">
         <v>10</v>
@@ -8383,19 +8195,19 @@
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="1" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="G245" s="6"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C246" s="2">
         <v>12</v>
@@ -8405,14 +8217,14 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="1" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="G246" s="6"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -8425,7 +8237,7 @@
       <c r="E247" s="2"/>
       <c r="F247" s="1"/>
       <c r="G247" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>110</v>
@@ -8444,10 +8256,10 @@
       <c r="E248" s="2"/>
       <c r="F248" s="1"/>
       <c r="G248" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>755</v>
+        <v>711</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -8482,7 +8294,7 @@
       <c r="E250" s="2"/>
       <c r="F250" s="1"/>
       <c r="G250" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>121</v>
@@ -8493,7 +8305,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C251" s="2">
         <v>7</v>
@@ -8503,7 +8315,7 @@
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G251" s="6" t="s">
         <v>62</v>
@@ -8525,10 +8337,10 @@
       <c r="E252" s="2"/>
       <c r="F252" s="1"/>
       <c r="G252" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>756</v>
+        <v>712</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -8574,7 +8386,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C255" s="2">
         <v>7</v>
@@ -8584,13 +8396,13 @@
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8606,7 +8418,7 @@
       <c r="E256" s="2"/>
       <c r="F256" s="1"/>
       <c r="G256" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>110</v>
@@ -8625,10 +8437,10 @@
       <c r="E257" s="2"/>
       <c r="F257" s="1"/>
       <c r="G257" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -8663,7 +8475,7 @@
       <c r="E259" s="2"/>
       <c r="F259" s="1"/>
       <c r="G259" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>124</v>
@@ -8674,7 +8486,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C260" s="2">
         <v>7</v>
@@ -8684,13 +8496,13 @@
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="1" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>757</v>
+        <v>713</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -8706,7 +8518,7 @@
       <c r="E261" s="2"/>
       <c r="F261" s="1"/>
       <c r="G261" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>139</v>
@@ -8744,7 +8556,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="1"/>
       <c r="G263" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>110</v>
@@ -8763,7 +8575,7 @@
       <c r="E264" s="2"/>
       <c r="F264" s="1"/>
       <c r="G264" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>110</v>
@@ -8782,10 +8594,10 @@
       <c r="E265" s="2"/>
       <c r="F265" s="1"/>
       <c r="G265" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -8793,7 +8605,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C266" s="2">
         <v>7</v>
@@ -8803,10 +8615,10 @@
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>121</v>
@@ -8825,10 +8637,10 @@
       <c r="E267" s="2"/>
       <c r="F267" s="1"/>
       <c r="G267" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>750</v>
+        <v>706</v>
       </c>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -8844,10 +8656,10 @@
       <c r="E268" s="2"/>
       <c r="F268" s="1"/>
       <c r="G268" s="6" t="s">
-        <v>752</v>
+        <v>708</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -8855,7 +8667,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C269" s="2">
         <v>7</v>
@@ -8865,13 +8677,13 @@
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -8879,7 +8691,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C270" s="2">
         <v>7</v>
@@ -8889,13 +8701,13 @@
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>751</v>
+        <v>707</v>
       </c>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -8911,10 +8723,10 @@
       <c r="E271" s="2"/>
       <c r="F271" s="1"/>
       <c r="G271" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -8930,7 +8742,7 @@
       <c r="E272" s="2"/>
       <c r="F272" s="1"/>
       <c r="G272" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>110</v>
@@ -8968,10 +8780,10 @@
       <c r="E274" s="2"/>
       <c r="F274" s="1"/>
       <c r="G274" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -8979,7 +8791,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C275" s="2">
         <v>8</v>
@@ -8989,10 +8801,10 @@
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>130</v>
@@ -9011,7 +8823,7 @@
       <c r="E276" s="2"/>
       <c r="F276" s="1"/>
       <c r="G276" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>110</v>
@@ -9030,7 +8842,7 @@
       <c r="E277" s="2"/>
       <c r="F277" s="1"/>
       <c r="G277" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>110</v>
@@ -9049,7 +8861,7 @@
       <c r="E278" s="2"/>
       <c r="F278" s="1"/>
       <c r="G278" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>110</v>
@@ -9068,10 +8880,10 @@
       <c r="E279" s="2"/>
       <c r="F279" s="1"/>
       <c r="G279" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>749</v>
+        <v>705</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -9079,7 +8891,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C280" s="2">
         <v>8</v>
@@ -9089,7 +8901,7 @@
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G280" s="6" t="s">
         <v>113</v>
@@ -9111,10 +8923,10 @@
       <c r="E281" s="2"/>
       <c r="F281" s="1"/>
       <c r="G281" s="6" t="s">
-        <v>713</v>
+        <v>669</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -9130,7 +8942,7 @@
       <c r="E282" s="2"/>
       <c r="F282" s="1"/>
       <c r="G282" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>110</v>
@@ -9141,7 +8953,7 @@
     </row>
     <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C283" s="2">
         <v>8</v>
@@ -9151,13 +8963,13 @@
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="4" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -9165,7 +8977,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C284" s="2">
         <v>8</v>
@@ -9175,10 +8987,10 @@
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>110</v>
@@ -9216,10 +9028,10 @@
       <c r="E286" s="2"/>
       <c r="F286" s="1"/>
       <c r="G286" s="6" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -9235,10 +9047,10 @@
       <c r="E287" s="2"/>
       <c r="F287" s="1"/>
       <c r="G287" s="6" t="s">
-        <v>709</v>
+        <v>665</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>710</v>
+        <v>666</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -9265,7 +9077,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C289" s="2">
         <v>8</v>
@@ -9275,10 +9087,10 @@
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>110</v>
@@ -9297,7 +9109,7 @@
       <c r="E290" s="2"/>
       <c r="F290" s="1"/>
       <c r="G290" s="6" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>110</v>
@@ -9316,10 +9128,10 @@
       <c r="E291" s="2"/>
       <c r="F291" s="1"/>
       <c r="G291" s="5" t="s">
-        <v>707</v>
+        <v>663</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -9327,7 +9139,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C292" s="2">
         <v>8</v>
@@ -9337,10 +9149,10 @@
       </c>
       <c r="E292" s="2"/>
       <c r="F292" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>120</v>
@@ -9359,7 +9171,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="1"/>
       <c r="G293" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>130</v>
@@ -9378,10 +9190,10 @@
       <c r="E294" s="2"/>
       <c r="F294" s="1"/>
       <c r="G294" s="6" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
@@ -9397,7 +9209,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="1"/>
       <c r="G295" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>120</v>
@@ -9416,7 +9228,7 @@
       <c r="E296" s="2"/>
       <c r="F296" s="1"/>
       <c r="G296" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>110</v>
@@ -9427,7 +9239,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C297" s="2">
         <v>8</v>
@@ -9437,10 +9249,10 @@
       </c>
       <c r="E297" s="2"/>
       <c r="F297" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>141</v>
@@ -9459,7 +9271,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="1"/>
       <c r="G298" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>110</v>
@@ -9478,7 +9290,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="1"/>
       <c r="G299" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>141</v>
@@ -9497,10 +9309,10 @@
       <c r="E300" s="2"/>
       <c r="F300" s="1"/>
       <c r="G300" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>747</v>
+        <v>703</v>
       </c>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
@@ -9508,7 +9320,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C301" s="2">
         <v>8</v>
@@ -9518,7 +9330,7 @@
       </c>
       <c r="E301" s="2"/>
       <c r="F301" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G301" s="6"/>
       <c r="H301" s="1"/>
@@ -9528,7 +9340,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C302" s="2">
         <v>8</v>
@@ -9538,14 +9350,14 @@
       </c>
       <c r="E302" s="2"/>
       <c r="F302" s="1" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="G302" s="6"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -9596,10 +9408,10 @@
       <c r="E305" s="2"/>
       <c r="F305" s="1"/>
       <c r="G305" s="6" t="s">
-        <v>746</v>
+        <v>702</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -9615,7 +9427,7 @@
       <c r="E306" s="2"/>
       <c r="F306" s="1"/>
       <c r="G306" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>110</v>
@@ -9634,10 +9446,10 @@
       <c r="E307" s="2"/>
       <c r="F307" s="1"/>
       <c r="G307" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H307" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="H307" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -9645,7 +9457,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C308" s="2">
         <v>9</v>
@@ -9655,13 +9467,13 @@
       </c>
       <c r="E308" s="2"/>
       <c r="F308" s="1" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -9677,7 +9489,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="1"/>
       <c r="G309" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>110</v>
@@ -9688,7 +9500,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C310" s="2">
         <v>9</v>
@@ -9698,10 +9510,10 @@
       </c>
       <c r="E310" s="2"/>
       <c r="F310" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>120</v>
@@ -9739,10 +9551,10 @@
       <c r="E312" s="2"/>
       <c r="F312" s="1"/>
       <c r="G312" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H312" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -9758,7 +9570,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="1"/>
       <c r="G313" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>110</v>
@@ -9777,7 +9589,7 @@
       <c r="E314" s="2"/>
       <c r="F314" s="1"/>
       <c r="G314" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>136</v>
@@ -9788,7 +9600,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C315" s="2">
         <v>9</v>
@@ -9798,7 +9610,7 @@
       </c>
       <c r="E315" s="2"/>
       <c r="F315" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>69</v>
@@ -9820,10 +9632,10 @@
       <c r="E316" s="2"/>
       <c r="F316" s="1"/>
       <c r="G316" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -9839,7 +9651,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="1"/>
       <c r="G317" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>110</v>
@@ -9850,7 +9662,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C318" s="2">
         <v>9</v>
@@ -9860,10 +9672,10 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>110</v>
@@ -9882,10 +9694,10 @@
       <c r="E319" s="2"/>
       <c r="F319" s="1"/>
       <c r="G319" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -9893,7 +9705,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C320" s="2">
         <v>9</v>
@@ -9903,13 +9715,13 @@
       </c>
       <c r="E320" s="2"/>
       <c r="F320" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -9925,7 +9737,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="1"/>
       <c r="G321" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>120</v>
@@ -9936,7 +9748,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C322" s="2">
         <v>9</v>
@@ -9946,10 +9758,10 @@
       </c>
       <c r="E322" s="2"/>
       <c r="F322" s="1" t="s">
-        <v>666</v>
+        <v>622</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>110</v>
@@ -9968,10 +9780,10 @@
       <c r="E323" s="2"/>
       <c r="F323" s="1"/>
       <c r="G323" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
@@ -10025,10 +9837,10 @@
       <c r="E326" s="2"/>
       <c r="F326" s="1"/>
       <c r="G326" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
@@ -10082,10 +9894,10 @@
       <c r="E329" s="2"/>
       <c r="F329" s="1"/>
       <c r="G329" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
@@ -10093,7 +9905,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C330" s="2">
         <v>9</v>
@@ -10103,10 +9915,10 @@
       </c>
       <c r="E330" s="2"/>
       <c r="F330" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>110</v>
@@ -10125,10 +9937,10 @@
       <c r="E331" s="2"/>
       <c r="F331" s="1"/>
       <c r="G331" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
@@ -10136,7 +9948,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C332" s="2">
         <v>9</v>
@@ -10146,7 +9958,7 @@
       </c>
       <c r="E332" s="2"/>
       <c r="F332" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>46</v>
@@ -10168,10 +9980,10 @@
       <c r="E333" s="2"/>
       <c r="F333" s="1"/>
       <c r="G333" s="6" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -10187,7 +9999,7 @@
       <c r="E334" s="2"/>
       <c r="F334" s="1"/>
       <c r="G334" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>110</v>
@@ -10198,7 +10010,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C335" s="2">
         <v>10</v>
@@ -10208,13 +10020,13 @@
       </c>
       <c r="E335" s="2"/>
       <c r="F335" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -10249,7 +10061,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="1"/>
       <c r="G337" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>120</v>
@@ -10279,7 +10091,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C339" s="2">
         <v>10</v>
@@ -10289,10 +10101,10 @@
       </c>
       <c r="E339" s="2"/>
       <c r="F339" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>140</v>
@@ -10311,10 +10123,10 @@
       <c r="E340" s="2"/>
       <c r="F340" s="1"/>
       <c r="G340" s="6" t="s">
-        <v>716</v>
+        <v>672</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -10349,10 +10161,10 @@
       <c r="E342" s="2"/>
       <c r="F342" s="1"/>
       <c r="G342" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -10367,13 +10179,13 @@
       </c>
       <c r="E343" s="2"/>
       <c r="F343" s="1" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -10389,10 +10201,10 @@
       <c r="E344" s="2"/>
       <c r="F344" s="1"/>
       <c r="G344" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -10400,7 +10212,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C345" s="2">
         <v>10</v>
@@ -10432,7 +10244,7 @@
       <c r="E346" s="2"/>
       <c r="F346" s="1"/>
       <c r="G346" s="6" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>137</v>
@@ -10470,7 +10282,7 @@
       <c r="E348" s="2"/>
       <c r="F348" s="1"/>
       <c r="G348" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>120</v>
@@ -10489,10 +10301,10 @@
       <c r="E349" s="2"/>
       <c r="F349" s="1"/>
       <c r="G349" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -10500,7 +10312,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C350" s="2">
         <v>10</v>
@@ -10510,7 +10322,7 @@
       </c>
       <c r="E350" s="2"/>
       <c r="F350" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>103</v>
@@ -10521,7 +10333,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -10553,10 +10365,10 @@
       <c r="E352" s="2"/>
       <c r="F352" s="1"/>
       <c r="G352" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>742</v>
+        <v>698</v>
       </c>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
@@ -10572,10 +10384,10 @@
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
       <c r="G353" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>741</v>
+        <v>697</v>
       </c>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
@@ -10591,10 +10403,10 @@
       <c r="E354" s="2"/>
       <c r="F354" s="1"/>
       <c r="G354" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
@@ -10602,7 +10414,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C355" s="2">
         <v>10</v>
@@ -10612,13 +10424,13 @@
       </c>
       <c r="E355" s="2"/>
       <c r="F355" s="1" t="s">
-        <v>668</v>
+        <v>624</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
@@ -10634,10 +10446,10 @@
       <c r="E356" s="2"/>
       <c r="F356" s="1"/>
       <c r="G356" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
@@ -10653,10 +10465,10 @@
       <c r="E357" s="2"/>
       <c r="F357" s="1"/>
       <c r="G357" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
@@ -10693,10 +10505,10 @@
       <c r="E359" s="2"/>
       <c r="F359" s="1"/>
       <c r="G359" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>738</v>
+        <v>694</v>
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
@@ -10704,7 +10516,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C360" s="2">
         <v>10</v>
@@ -10716,7 +10528,7 @@
         <v>1965</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>57</v>
@@ -10738,10 +10550,10 @@
       <c r="E361" s="2"/>
       <c r="F361" s="1"/>
       <c r="G361" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H361" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="H361" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -10757,7 +10569,7 @@
       <c r="E362" s="2"/>
       <c r="F362" s="1"/>
       <c r="G362" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>141</v>
@@ -10776,10 +10588,10 @@
       <c r="E363" s="2"/>
       <c r="F363" s="1"/>
       <c r="G363" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -10795,10 +10607,10 @@
       <c r="E364" s="2"/>
       <c r="F364" s="1"/>
       <c r="G364" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -10806,7 +10618,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C365" s="2">
         <v>10</v>
@@ -10819,7 +10631,7 @@
         <v>21</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
@@ -10828,7 +10640,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C366" s="2">
         <v>11</v>
@@ -10838,13 +10650,13 @@
       </c>
       <c r="E366" s="2"/>
       <c r="F366" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -10860,7 +10672,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="1"/>
       <c r="G367" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>137</v>
@@ -10879,10 +10691,10 @@
       <c r="E368" s="2"/>
       <c r="F368" s="1"/>
       <c r="G368" s="6" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -10898,7 +10710,7 @@
       <c r="E369" s="2"/>
       <c r="F369" s="1"/>
       <c r="G369" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H369" s="1" t="s">
         <v>110</v>
@@ -10917,7 +10729,7 @@
       <c r="E370" s="2"/>
       <c r="F370" s="1"/>
       <c r="G370" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>120</v>
@@ -10936,7 +10748,7 @@
       <c r="E371" s="2"/>
       <c r="F371" s="1"/>
       <c r="G371" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>110</v>
@@ -10947,7 +10759,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C372" s="2">
         <v>11</v>
@@ -10957,7 +10769,7 @@
       </c>
       <c r="E372" s="2"/>
       <c r="F372" s="1" t="s">
-        <v>669</v>
+        <v>625</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>98</v>
@@ -10979,7 +10791,7 @@
       <c r="E373" s="2"/>
       <c r="F373" s="1"/>
       <c r="G373" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>110</v>
@@ -10990,7 +10802,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C374" s="2">
         <v>11</v>
@@ -11000,7 +10812,7 @@
       </c>
       <c r="E374" s="2"/>
       <c r="F374" s="4" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>32</v>
@@ -11022,10 +10834,10 @@
       <c r="E375" s="2"/>
       <c r="F375" s="1"/>
       <c r="G375" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -11033,7 +10845,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C376" s="2">
         <v>11</v>
@@ -11065,7 +10877,7 @@
       <c r="E377" s="2"/>
       <c r="F377" s="1"/>
       <c r="G377" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>124</v>
@@ -11076,7 +10888,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C378" s="2">
         <v>11</v>
@@ -11086,10 +10898,10 @@
       </c>
       <c r="E378" s="2"/>
       <c r="F378" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G378" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>110</v>
@@ -11108,10 +10920,10 @@
       <c r="E379" s="2"/>
       <c r="F379" s="1"/>
       <c r="G379" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H379" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
@@ -11119,7 +10931,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C380" s="2">
         <v>11</v>
@@ -11129,13 +10941,13 @@
       </c>
       <c r="E380" s="2"/>
       <c r="F380" s="1" t="s">
-        <v>671</v>
+        <v>627</v>
       </c>
       <c r="G380" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H380" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="H380" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
@@ -11143,7 +10955,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C381" s="2">
         <v>11</v>
@@ -11153,7 +10965,7 @@
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="1" t="s">
-        <v>672</v>
+        <v>628</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>67</v>
@@ -11175,10 +10987,10 @@
       <c r="E382" s="2"/>
       <c r="F382" s="1"/>
       <c r="G382" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
@@ -11194,7 +11006,7 @@
       <c r="E383" s="2"/>
       <c r="F383" s="1"/>
       <c r="G383" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H383" s="1" t="s">
         <v>124</v>
@@ -11213,7 +11025,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="1"/>
       <c r="G384" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>140</v>
@@ -11224,7 +11036,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C385" s="2">
         <v>11</v>
@@ -11234,7 +11046,7 @@
       </c>
       <c r="E385" s="2"/>
       <c r="F385" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>28</v>
@@ -11256,7 +11068,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="1"/>
       <c r="G386" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H386" s="1" t="s">
         <v>110</v>
@@ -11275,10 +11087,10 @@
       <c r="E387" s="2"/>
       <c r="F387" s="1"/>
       <c r="G387" s="6" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
@@ -11294,10 +11106,10 @@
       <c r="E388" s="2"/>
       <c r="F388" s="1"/>
       <c r="G388" s="6" t="s">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>731</v>
+        <v>687</v>
       </c>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -11305,7 +11117,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C389" s="2">
         <v>11</v>
@@ -11315,10 +11127,10 @@
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="1" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H389" s="1" t="s">
         <v>110</v>
@@ -11337,10 +11149,10 @@
       <c r="E390" s="2"/>
       <c r="F390" s="1"/>
       <c r="G390" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -11356,10 +11168,10 @@
       <c r="E391" s="2"/>
       <c r="F391" s="1"/>
       <c r="G391" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -11394,10 +11206,10 @@
       <c r="E393" s="2"/>
       <c r="F393" s="1"/>
       <c r="G393" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -11405,7 +11217,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C394" s="2">
         <v>11</v>
@@ -11415,10 +11227,10 @@
       </c>
       <c r="E394" s="2"/>
       <c r="F394" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G394" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>120</v>
@@ -11429,7 +11241,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C395" s="2">
         <v>11</v>
@@ -11439,10 +11251,10 @@
       </c>
       <c r="E395" s="2"/>
       <c r="F395" s="1" t="s">
-        <v>674</v>
+        <v>630</v>
       </c>
       <c r="G395" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>110</v>
@@ -11480,7 +11292,7 @@
       <c r="E397" s="2"/>
       <c r="F397" s="1"/>
       <c r="G397" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H397" s="1" t="s">
         <v>126</v>
@@ -11499,7 +11311,7 @@
       <c r="E398" s="2"/>
       <c r="F398" s="1"/>
       <c r="G398" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>137</v>
@@ -11518,10 +11330,10 @@
       <c r="E399" s="2"/>
       <c r="F399" s="1"/>
       <c r="G399" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -11548,7 +11360,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C401" s="2">
         <v>12</v>
@@ -11558,7 +11370,7 @@
       </c>
       <c r="E401" s="2"/>
       <c r="F401" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>38</v>
@@ -11572,7 +11384,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C402" s="2">
         <v>12</v>
@@ -11582,13 +11394,13 @@
       </c>
       <c r="E402" s="2"/>
       <c r="F402" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G402" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -11604,7 +11416,7 @@
       <c r="E403" s="2"/>
       <c r="F403" s="1"/>
       <c r="G403" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>110</v>
@@ -11623,7 +11435,7 @@
       <c r="E404" s="2"/>
       <c r="F404" s="1"/>
       <c r="G404" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H404" s="1" t="s">
         <v>120</v>
@@ -11634,7 +11446,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C405" s="2">
         <v>12</v>
@@ -11644,10 +11456,10 @@
       </c>
       <c r="E405" s="2"/>
       <c r="F405" s="1" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="G405" s="6" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="H405" s="1" t="s">
         <v>110</v>
@@ -11677,7 +11489,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C407" s="2">
         <v>12</v>
@@ -11689,7 +11501,7 @@
         <v>2017</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G407" s="6"/>
       <c r="H407" s="1"/>
@@ -11707,10 +11519,10 @@
       <c r="E408" s="2"/>
       <c r="F408" s="1"/>
       <c r="G408" s="6" t="s">
-        <v>732</v>
+        <v>688</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
@@ -11726,7 +11538,7 @@
       <c r="E409" s="2"/>
       <c r="F409" s="1"/>
       <c r="G409" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H409" s="1" t="s">
         <v>124</v>
@@ -11745,7 +11557,7 @@
       <c r="E410" s="2"/>
       <c r="F410" s="1"/>
       <c r="G410" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>136</v>
@@ -11783,10 +11595,10 @@
       <c r="E412" s="2"/>
       <c r="F412" s="1"/>
       <c r="G412" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
@@ -11794,7 +11606,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C413" s="2">
         <v>12</v>
@@ -11804,10 +11616,10 @@
       </c>
       <c r="E413" s="2"/>
       <c r="F413" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G413" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H413" s="1" t="s">
         <v>110</v>
@@ -11826,10 +11638,10 @@
       <c r="E414" s="2"/>
       <c r="F414" s="1"/>
       <c r="G414" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
@@ -11845,7 +11657,7 @@
       <c r="E415" s="2"/>
       <c r="F415" s="1"/>
       <c r="G415" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>110</v>
@@ -11864,7 +11676,7 @@
       <c r="E416" s="2"/>
       <c r="F416" s="1"/>
       <c r="G416" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H416" s="1" t="s">
         <v>110</v>
@@ -11883,7 +11695,7 @@
       <c r="E417" s="2"/>
       <c r="F417" s="1"/>
       <c r="G417" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H417" s="1" t="s">
         <v>110</v>
@@ -11902,10 +11714,10 @@
       <c r="E418" s="2"/>
       <c r="F418" s="1"/>
       <c r="G418" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H418" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H418" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
@@ -11921,7 +11733,7 @@
       <c r="E419" s="2"/>
       <c r="F419" s="1"/>
       <c r="G419" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>130</v>
@@ -11932,7 +11744,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C420" s="2">
         <v>12</v>
@@ -11956,7 +11768,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C421" s="2">
         <v>12</v>
@@ -11969,7 +11781,7 @@
         <v>2</v>
       </c>
       <c r="G421" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>110</v>
@@ -11980,7 +11792,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C422" s="2">
         <v>12</v>
@@ -11990,13 +11802,13 @@
       </c>
       <c r="E422" s="2"/>
       <c r="F422" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>736</v>
+        <v>692</v>
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -12004,7 +11816,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C423" s="2">
         <v>12</v>
@@ -12014,13 +11826,13 @@
       </c>
       <c r="E423" s="2"/>
       <c r="F423" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -12055,10 +11867,10 @@
       <c r="E425" s="2"/>
       <c r="F425" s="1"/>
       <c r="G425" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -12066,7 +11878,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C426" s="2">
         <v>12</v>
@@ -12076,13 +11888,13 @@
       </c>
       <c r="E426" s="14"/>
       <c r="F426" s="1" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -12090,7 +11902,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C427" s="2">
         <v>12</v>
@@ -12120,10 +11932,10 @@
       <c r="E428" s="12"/>
       <c r="F428" s="11"/>
       <c r="G428" s="13" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="H428" s="11" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="I428" s="11"/>
       <c r="J428" s="11"/>
@@ -12131,19 +11943,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
+    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="M14" sqref="M14"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-      <autoFilter ref="A1:J409"/>
-    </customSheetView>
-    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="F11" sqref="F11"/>
-      <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition ref="A2:A366"/>
@@ -12153,23 +11957,31 @@
     <customSheetView guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition descending="1" ref="A2:A366"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="M14" sqref="M14"/>
+    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="F11" sqref="F11"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition ref="A2:A366"/>
         </sortState>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
+      <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <printOptions gridLines="1"/>
+      <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <autoFilter ref="A1:J409"/>
     </customSheetView>
   </customSheetViews>
   <printOptions gridLines="1"/>
@@ -12183,1027 +11995,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:K48"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="49.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="147" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="F3" t="s">
-        <v>517</v>
-      </c>
-      <c r="G3" t="s">
-        <v>518</v>
-      </c>
-      <c r="H3" t="s">
-        <v>519</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="J3" t="s">
-        <v>521</v>
-      </c>
-      <c r="K3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2020</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2021</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2018</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>26</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2018</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C27" s="2">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C32" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C38" s="2">
-        <v>8</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C39" s="2">
-        <v>11</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C40" s="2">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C41" s="2">
-        <v>11</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C42" s="2">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C44" s="2">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C45" s="2">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C46" s="2">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C47" s="2">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2">
-        <v>15</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K48" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" t="s">
+        <v>743</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataSamples/Fun Family Page A Day Data (v5).xlsx
+++ b/dataSamples/Fun Family Page A Day Data (v5).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12600" windowHeight="12408"/>
   </bookViews>
   <sheets>
     <sheet name="PAGES" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="745">
   <si>
     <t>New Year’s Day</t>
   </si>
@@ -1885,9 +1885,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.20170111.00</t>
-  </si>
-  <si>
     <t>ListOfDates 2016-11-27 2017-12-03 2018-12-02 2019-12-01 2020-11-29</t>
   </si>
   <si>
@@ -2409,6 +2406,12 @@
   </si>
   <si>
     <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>5.20170512.00</t>
   </si>
 </sst>
 </file>
@@ -3115,29 +3118,29 @@
   </sheetPr>
   <dimension ref="A1:P428"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="7" max="7" width="56.109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>556</v>
       </c>
@@ -3147,25 +3150,25 @@
       <c r="G1" s="3"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>568</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>569</v>
+        <v>744</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G4" s="3"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>507</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>511</v>
       </c>
       <c r="F5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>514</v>
@@ -3191,21 +3194,21 @@
         <v>515</v>
       </c>
       <c r="I5" t="s">
+        <v>632</v>
+      </c>
+      <c r="J5" t="s">
         <v>633</v>
-      </c>
-      <c r="J5" t="s">
-        <v>634</v>
       </c>
       <c r="K5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="1" t="s">
@@ -3217,12 +3220,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="1" t="s">
@@ -3238,12 +3241,12 @@
       <c r="J7" s="1"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
@@ -3257,12 +3260,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="1" t="s">
@@ -3276,12 +3279,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="1" t="s">
@@ -3295,19 +3298,19 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="1" t="s">
         <v>346</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>269</v>
@@ -3318,12 +3321,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="1" t="s">
@@ -3335,12 +3338,12 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="1" t="s">
@@ -3356,12 +3359,12 @@
       <c r="J13" s="1"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
@@ -3373,12 +3376,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="1" t="s">
@@ -3390,12 +3393,12 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="1" t="s">
@@ -3407,12 +3410,12 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="1" t="s">
@@ -3424,12 +3427,12 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="1" t="s">
@@ -3441,12 +3444,12 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="1" t="s">
@@ -3458,12 +3461,12 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="1" t="s">
@@ -3475,12 +3478,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="4" t="s">
@@ -3492,12 +3495,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3507,7 +3510,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>265</v>
@@ -3518,12 +3521,12 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -3543,7 +3546,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>512</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>554</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>114</v>
@@ -3569,7 +3572,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>512</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>553</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>114</v>
@@ -3595,7 +3598,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>512</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>552</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>114</v>
@@ -3621,7 +3624,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>512</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>555</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>114</v>
@@ -3647,7 +3650,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>512</v>
       </c>
@@ -3673,12 +3676,12 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -3695,7 +3698,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>512</v>
       </c>
@@ -3717,7 +3720,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>512</v>
       </c>
@@ -3739,12 +3742,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
@@ -3765,12 +3768,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
@@ -3785,7 +3788,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>512</v>
       </c>
@@ -3812,12 +3815,12 @@
       <c r="J34" s="1"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -3834,12 +3837,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
@@ -3856,12 +3859,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -3882,12 +3885,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -3904,12 +3907,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C39" s="2">
         <v>6</v>
@@ -3922,18 +3925,18 @@
         <v>226</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C40" s="2">
         <v>7</v>
@@ -3950,12 +3953,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
@@ -3972,12 +3975,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C42" s="2">
         <v>9</v>
@@ -3992,19 +3995,19 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C43" s="2">
         <v>9</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>175</v>
@@ -4016,12 +4019,12 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C44" s="2">
         <v>10</v>
@@ -4042,12 +4045,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C45" s="2">
         <v>11</v>
@@ -4064,12 +4067,12 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C46" s="2">
         <v>11</v>
@@ -4082,7 +4085,7 @@
         <v>172</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -4090,12 +4093,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C47" s="2">
         <v>11</v>
@@ -4116,12 +4119,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C48" s="2">
         <v>11</v>
@@ -4138,7 +4141,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>512</v>
       </c>
@@ -4162,7 +4165,10 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
@@ -4181,7 +4187,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>512</v>
       </c>
@@ -4205,7 +4211,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>513</v>
       </c>
@@ -4229,7 +4235,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>513</v>
       </c>
@@ -4253,7 +4259,10 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
@@ -4266,13 +4275,13 @@
         <v>217</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>512</v>
       </c>
@@ -4296,7 +4305,10 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
@@ -4315,7 +4327,10 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
@@ -4334,7 +4349,10 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
@@ -4353,7 +4371,10 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
@@ -4372,7 +4393,10 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
@@ -4391,7 +4415,10 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C61" s="2">
         <v>1</v>
       </c>
@@ -4410,7 +4437,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>512</v>
       </c>
@@ -4434,7 +4461,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>513</v>
       </c>
@@ -4446,7 +4473,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>439</v>
@@ -4458,7 +4485,10 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
@@ -4477,7 +4507,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>512</v>
       </c>
@@ -4489,10 +4519,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>211</v>
@@ -4501,7 +4531,10 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
@@ -4520,7 +4553,10 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
@@ -4539,7 +4575,10 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C68" s="2">
         <v>1</v>
       </c>
@@ -4558,7 +4597,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>512</v>
       </c>
@@ -4576,13 +4615,13 @@
         <v>271</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>513</v>
       </c>
@@ -4608,7 +4647,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>513</v>
       </c>
@@ -4620,7 +4659,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>369</v>
@@ -4632,7 +4671,10 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
@@ -4651,7 +4693,10 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
@@ -4670,7 +4715,10 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
@@ -4689,7 +4737,10 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C75" s="2">
         <v>1</v>
       </c>
@@ -4708,7 +4759,10 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C76" s="2">
         <v>1</v>
       </c>
@@ -4727,7 +4781,10 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
@@ -4746,7 +4803,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>512</v>
       </c>
@@ -4758,19 +4815,22 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="H78" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C79" s="2">
         <v>1</v>
       </c>
@@ -4789,7 +4849,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>513</v>
       </c>
@@ -4801,7 +4861,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>35</v>
@@ -4813,7 +4873,10 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C81" s="2">
         <v>1</v>
       </c>
@@ -4823,16 +4886,16 @@
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>512</v>
       </c>
@@ -4850,13 +4913,13 @@
         <v>186</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>512</v>
       </c>
@@ -4871,16 +4934,19 @@
         <v>193</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C84" s="2">
         <v>2</v>
       </c>
@@ -4899,7 +4965,10 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C85" s="2">
         <v>2</v>
       </c>
@@ -4918,7 +4987,10 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C86" s="2">
         <v>2</v>
       </c>
@@ -4937,7 +5009,10 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C87" s="2">
         <v>2</v>
       </c>
@@ -4956,7 +5031,10 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C88" s="2">
         <v>2</v>
       </c>
@@ -4966,16 +5044,19 @@
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C89" s="2">
         <v>2</v>
       </c>
@@ -4988,13 +5069,16 @@
         <v>276</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C90" s="2">
         <v>2</v>
       </c>
@@ -5013,7 +5097,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>512</v>
       </c>
@@ -5037,7 +5121,10 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C92" s="2">
         <v>2</v>
       </c>
@@ -5056,7 +5143,10 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C93" s="2">
         <v>2</v>
       </c>
@@ -5075,7 +5165,10 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C94" s="2">
         <v>2</v>
       </c>
@@ -5094,7 +5187,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>512</v>
       </c>
@@ -5116,7 +5209,10 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C96" s="2">
         <v>2</v>
       </c>
@@ -5135,7 +5231,10 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C97" s="2">
         <v>2</v>
       </c>
@@ -5148,13 +5247,16 @@
         <v>279</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C98" s="2">
         <v>2</v>
       </c>
@@ -5173,7 +5275,10 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C99" s="2">
         <v>2</v>
       </c>
@@ -5192,7 +5297,10 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C100" s="2">
         <v>2</v>
       </c>
@@ -5211,7 +5319,10 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C101" s="2">
         <v>2</v>
       </c>
@@ -5221,16 +5332,19 @@
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C102" s="2">
         <v>2</v>
       </c>
@@ -5240,7 +5354,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="1"/>
       <c r="G102" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>190</v>
@@ -5249,7 +5363,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>512</v>
       </c>
@@ -5273,7 +5387,10 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C104" s="2">
         <v>2</v>
       </c>
@@ -5283,16 +5400,19 @@
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="G104" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C105" s="2">
         <v>2</v>
       </c>
@@ -5311,7 +5431,10 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C106" s="2">
         <v>2</v>
       </c>
@@ -5330,7 +5453,10 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C107" s="2">
         <v>2</v>
       </c>
@@ -5349,7 +5475,10 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C108" s="2">
         <v>2</v>
       </c>
@@ -5368,7 +5497,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>513</v>
       </c>
@@ -5392,7 +5521,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>512</v>
       </c>
@@ -5407,16 +5536,19 @@
         <v>525</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C111" s="2">
         <v>3</v>
       </c>
@@ -5426,16 +5558,16 @@
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
       <c r="G111" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>512</v>
       </c>
@@ -5447,7 +5579,7 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="1"/>
@@ -5455,7 +5587,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>513</v>
       </c>
@@ -5467,7 +5599,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>566</v>
@@ -5479,7 +5611,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>512</v>
       </c>
@@ -5494,7 +5626,7 @@
         <v>463</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>234</v>
@@ -5503,7 +5635,10 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C115" s="2">
         <v>3</v>
       </c>
@@ -5522,7 +5657,10 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C116" s="2">
         <v>3</v>
       </c>
@@ -5541,7 +5679,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>513</v>
       </c>
@@ -5565,7 +5703,10 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C118" s="2">
         <v>3</v>
       </c>
@@ -5584,7 +5725,10 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C119" s="2">
         <v>3</v>
       </c>
@@ -5603,7 +5747,10 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C120" s="2">
         <v>3</v>
       </c>
@@ -5622,7 +5769,10 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C121" s="2">
         <v>3</v>
       </c>
@@ -5641,7 +5791,10 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C122" s="2">
         <v>3</v>
       </c>
@@ -5660,7 +5813,10 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C123" s="2">
         <v>3</v>
       </c>
@@ -5679,7 +5835,10 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C124" s="2">
         <v>3</v>
       </c>
@@ -5698,7 +5857,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>512</v>
       </c>
@@ -5710,7 +5869,7 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>383</v>
@@ -5722,7 +5881,10 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C126" s="2">
         <v>3</v>
       </c>
@@ -5741,7 +5903,10 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C127" s="2">
         <v>3</v>
       </c>
@@ -5760,7 +5925,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>512</v>
       </c>
@@ -5782,7 +5947,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>513</v>
       </c>
@@ -5794,7 +5959,7 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G129" s="6" t="s">
         <v>517</v>
@@ -5804,7 +5969,10 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C130" s="2">
         <v>3</v>
       </c>
@@ -5823,7 +5991,10 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C131" s="2">
         <v>3</v>
       </c>
@@ -5842,7 +6013,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>512</v>
       </c>
@@ -5868,7 +6039,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C133" s="2">
         <v>3</v>
       </c>
@@ -5887,7 +6061,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>512</v>
       </c>
@@ -5911,7 +6085,10 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C135" s="2">
         <v>3</v>
       </c>
@@ -5930,7 +6107,10 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C136" s="2">
         <v>3</v>
       </c>
@@ -5949,7 +6129,10 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C137" s="2">
         <v>3</v>
       </c>
@@ -5968,7 +6151,10 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C138" s="2">
         <v>3</v>
       </c>
@@ -5981,13 +6167,13 @@
         <v>386</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>512</v>
       </c>
@@ -6011,7 +6197,10 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C140" s="2">
         <v>3</v>
       </c>
@@ -6030,7 +6219,10 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C141" s="2">
         <v>3</v>
       </c>
@@ -6052,7 +6244,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C142" s="2">
         <v>3</v>
       </c>
@@ -6071,7 +6266,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>513</v>
       </c>
@@ -6083,7 +6278,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>40</v>
@@ -6095,7 +6290,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>512</v>
       </c>
@@ -6119,7 +6314,7 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>512</v>
       </c>
@@ -6143,7 +6338,10 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C146" s="2">
         <v>4</v>
       </c>
@@ -6162,7 +6360,10 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C147" s="2">
         <v>4</v>
       </c>
@@ -6181,7 +6382,10 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C148" s="2">
         <v>4</v>
       </c>
@@ -6200,7 +6404,10 @@
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C149" s="2">
         <v>4</v>
       </c>
@@ -6213,13 +6420,16 @@
         <v>352</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C150" s="2">
         <v>4</v>
       </c>
@@ -6238,7 +6448,10 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C151" s="2">
         <v>4</v>
       </c>
@@ -6248,16 +6461,19 @@
       <c r="E151" s="2"/>
       <c r="F151" s="1"/>
       <c r="G151" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C152" s="2">
         <v>4</v>
       </c>
@@ -6276,7 +6492,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>512</v>
       </c>
@@ -6300,7 +6516,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>513</v>
       </c>
@@ -6324,7 +6540,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>513</v>
       </c>
@@ -6348,7 +6564,10 @@
       <c r="J155" s="1"/>
       <c r="K155" s="7"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C156" s="2">
         <v>4</v>
       </c>
@@ -6367,7 +6586,10 @@
       <c r="J156" s="1"/>
       <c r="K156" s="8"/>
     </row>
-    <row r="157" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C157" s="2">
         <v>4</v>
       </c>
@@ -6377,16 +6599,19 @@
       <c r="E157" s="2"/>
       <c r="F157" s="1"/>
       <c r="G157" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C158" s="2">
         <v>4</v>
       </c>
@@ -6396,16 +6621,19 @@
       <c r="E158" s="2"/>
       <c r="F158" s="1"/>
       <c r="G158" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="8"/>
     </row>
-    <row r="159" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C159" s="2">
         <v>4</v>
       </c>
@@ -6415,16 +6643,19 @@
       <c r="E159" s="2"/>
       <c r="F159" s="1"/>
       <c r="G159" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="H159" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C160" s="2">
         <v>4</v>
       </c>
@@ -6443,7 +6674,10 @@
       <c r="J160" s="1"/>
       <c r="K160" s="8"/>
     </row>
-    <row r="161" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C161" s="2">
         <v>4</v>
       </c>
@@ -6462,7 +6696,10 @@
       <c r="J161" s="1"/>
       <c r="K161" s="7"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C162" s="2">
         <v>4</v>
       </c>
@@ -6481,7 +6718,10 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C163" s="2">
         <v>4</v>
       </c>
@@ -6494,13 +6734,16 @@
         <v>290</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C164" s="2">
         <v>4</v>
       </c>
@@ -6519,7 +6762,7 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>512</v>
       </c>
@@ -6543,7 +6786,10 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C166" s="2">
         <v>4</v>
       </c>
@@ -6562,7 +6808,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6574,7 +6820,7 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>353</v>
@@ -6586,7 +6832,10 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C168" s="2">
         <v>4</v>
       </c>
@@ -6605,7 +6854,10 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C169" s="2">
         <v>4</v>
       </c>
@@ -6618,13 +6870,16 @@
         <v>292</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C170" s="2">
         <v>4</v>
       </c>
@@ -6643,7 +6898,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>512</v>
       </c>
@@ -6667,7 +6922,10 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C172" s="2">
         <v>4</v>
       </c>
@@ -6686,7 +6944,10 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C173" s="2">
         <v>4</v>
       </c>
@@ -6705,7 +6966,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>512</v>
       </c>
@@ -6725,9 +6986,9 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C175" s="2">
         <v>5</v>
@@ -6737,7 +6998,7 @@
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G175" s="6" t="s">
         <v>293</v>
@@ -6749,9 +7010,9 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -6763,7 +7024,7 @@
         <v>1985</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G176" s="6" t="s">
         <v>293</v>
@@ -6775,7 +7036,10 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C177" s="2">
         <v>5</v>
       </c>
@@ -6788,13 +7052,16 @@
         <v>357</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C178" s="2">
         <v>5</v>
       </c>
@@ -6813,7 +7080,7 @@
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>512</v>
       </c>
@@ -6837,7 +7104,7 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>512</v>
       </c>
@@ -6861,7 +7128,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>512</v>
       </c>
@@ -6885,7 +7152,10 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C182" s="2">
         <v>5</v>
       </c>
@@ -6904,7 +7174,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>512</v>
       </c>
@@ -6919,16 +7189,19 @@
         <v>469</v>
       </c>
       <c r="G183" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C184" s="2">
         <v>5</v>
       </c>
@@ -6947,7 +7220,10 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C185" s="2">
         <v>5</v>
       </c>
@@ -6966,7 +7242,10 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C186" s="2">
         <v>5</v>
       </c>
@@ -6985,7 +7264,10 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C187" s="2">
         <v>5</v>
       </c>
@@ -6995,7 +7277,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="1"/>
       <c r="G187" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>235</v>
@@ -7004,7 +7286,10 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C188" s="2">
         <v>5</v>
       </c>
@@ -7023,7 +7308,10 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C189" s="2">
         <v>5</v>
       </c>
@@ -7036,13 +7324,16 @@
         <v>360</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C190" s="2">
         <v>5</v>
       </c>
@@ -7061,9 +7352,9 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C191" s="2">
         <v>5</v>
@@ -7073,7 +7364,7 @@
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>50</v>
@@ -7085,7 +7376,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>513</v>
       </c>
@@ -7109,7 +7400,10 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C193" s="2">
         <v>5</v>
       </c>
@@ -7128,9 +7422,9 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C194" s="2">
         <v>5</v>
@@ -7140,7 +7434,7 @@
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>24</v>
@@ -7152,7 +7446,10 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C195" s="2">
         <v>5</v>
       </c>
@@ -7171,7 +7468,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>513</v>
       </c>
@@ -7183,7 +7480,7 @@
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>298</v>
@@ -7195,7 +7492,7 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>512</v>
       </c>
@@ -7219,7 +7516,10 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C198" s="2">
         <v>5</v>
       </c>
@@ -7238,7 +7538,10 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C199" s="2">
         <v>5</v>
       </c>
@@ -7251,13 +7554,16 @@
         <v>364</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C200" s="2">
         <v>5</v>
       </c>
@@ -7276,7 +7582,10 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C201" s="2">
         <v>5</v>
       </c>
@@ -7295,7 +7604,10 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C202" s="2">
         <v>5</v>
       </c>
@@ -7308,13 +7620,16 @@
         <v>299</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C203" s="2">
         <v>5</v>
       </c>
@@ -7333,7 +7648,10 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C204" s="2">
         <v>5</v>
       </c>
@@ -7352,7 +7670,10 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C205" s="2">
         <v>5</v>
       </c>
@@ -7371,7 +7692,10 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C206" s="2">
         <v>5</v>
       </c>
@@ -7390,7 +7714,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>512</v>
       </c>
@@ -7414,7 +7738,10 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C208" s="2">
         <v>6</v>
       </c>
@@ -7433,7 +7760,10 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C209" s="2">
         <v>6</v>
       </c>
@@ -7452,7 +7782,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>512</v>
       </c>
@@ -7476,7 +7806,10 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C211" s="2">
         <v>6</v>
       </c>
@@ -7489,13 +7822,13 @@
         <v>390</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>512</v>
       </c>
@@ -7514,10 +7847,10 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>513</v>
       </c>
@@ -7541,7 +7874,10 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C214" s="2">
         <v>6</v>
       </c>
@@ -7560,7 +7896,7 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>512</v>
       </c>
@@ -7578,13 +7914,16 @@
         <v>147</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C216" s="2">
         <v>6</v>
       </c>
@@ -7594,16 +7933,19 @@
       <c r="E216" s="2"/>
       <c r="F216" s="1"/>
       <c r="G216" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="H216" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C217" s="2">
         <v>6</v>
       </c>
@@ -7622,7 +7964,7 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>512</v>
       </c>
@@ -7646,7 +7988,10 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C219" s="2">
         <v>6</v>
       </c>
@@ -7665,7 +8010,10 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C220" s="2">
         <v>6</v>
       </c>
@@ -7678,13 +8026,13 @@
         <v>506</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>512</v>
       </c>
@@ -7708,7 +8056,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>513</v>
       </c>
@@ -7732,7 +8080,10 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C223" s="2">
         <v>6</v>
       </c>
@@ -7751,7 +8102,10 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C224" s="2">
         <v>6</v>
       </c>
@@ -7770,7 +8124,10 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C225" s="2">
         <v>6</v>
       </c>
@@ -7783,13 +8140,16 @@
         <v>394</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C226" s="2">
         <v>6</v>
       </c>
@@ -7808,7 +8168,10 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C227" s="2">
         <v>6</v>
       </c>
@@ -7827,7 +8190,7 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>512</v>
       </c>
@@ -7851,7 +8214,10 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C229" s="2">
         <v>6</v>
       </c>
@@ -7870,7 +8236,10 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C230" s="2">
         <v>6</v>
       </c>
@@ -7889,7 +8258,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>513</v>
       </c>
@@ -7901,7 +8270,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G231" s="6" t="s">
         <v>129</v>
@@ -7913,7 +8282,10 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C232" s="2">
         <v>6</v>
       </c>
@@ -7932,7 +8304,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>512</v>
       </c>
@@ -7956,7 +8328,10 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C234" s="2">
         <v>6</v>
       </c>
@@ -7975,7 +8350,10 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C235" s="2">
         <v>6</v>
       </c>
@@ -7988,13 +8366,13 @@
         <v>184</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>512</v>
       </c>
@@ -8012,13 +8390,16 @@
         <v>388</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C237" s="2">
         <v>6</v>
       </c>
@@ -8037,7 +8418,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>512</v>
       </c>
@@ -8061,7 +8442,10 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C239" s="2">
         <v>7</v>
       </c>
@@ -8080,7 +8464,10 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C240" s="2">
         <v>7</v>
       </c>
@@ -8099,7 +8486,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>512</v>
       </c>
@@ -8117,13 +8504,16 @@
         <v>311</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C242" s="2">
         <v>7</v>
       </c>
@@ -8142,7 +8532,10 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C243" s="2">
         <v>7</v>
       </c>
@@ -8161,7 +8554,7 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>512</v>
       </c>
@@ -8183,7 +8576,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>512</v>
       </c>
@@ -8205,7 +8598,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>512</v>
       </c>
@@ -8227,7 +8620,10 @@
         <v>542</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C247" s="2">
         <v>7</v>
       </c>
@@ -8246,7 +8642,10 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C248" s="2">
         <v>7</v>
       </c>
@@ -8259,13 +8658,16 @@
         <v>400</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C249" s="2">
         <v>7</v>
       </c>
@@ -8284,7 +8686,10 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C250" s="2">
         <v>7</v>
       </c>
@@ -8303,7 +8708,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>512</v>
       </c>
@@ -8327,7 +8732,10 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C252" s="2">
         <v>7</v>
       </c>
@@ -8340,13 +8748,16 @@
         <v>218</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C253" s="2">
         <v>7</v>
       </c>
@@ -8365,7 +8776,10 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C254" s="2">
         <v>7</v>
       </c>
@@ -8384,7 +8798,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>512</v>
       </c>
@@ -8402,13 +8816,16 @@
         <v>219</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C256" s="2">
         <v>7</v>
       </c>
@@ -8427,7 +8844,10 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C257" s="2">
         <v>7</v>
       </c>
@@ -8446,7 +8866,10 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C258" s="2">
         <v>7</v>
       </c>
@@ -8465,7 +8888,10 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C259" s="2">
         <v>7</v>
       </c>
@@ -8484,7 +8910,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>512</v>
       </c>
@@ -8502,13 +8928,16 @@
         <v>544</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C261" s="2">
         <v>7</v>
       </c>
@@ -8527,7 +8956,10 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C262" s="2">
         <v>7</v>
       </c>
@@ -8546,7 +8978,10 @@
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C263" s="2">
         <v>7</v>
       </c>
@@ -8565,7 +9000,10 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C264" s="2">
         <v>7</v>
       </c>
@@ -8584,7 +9022,10 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C265" s="2">
         <v>7</v>
       </c>
@@ -8597,13 +9038,13 @@
         <v>223</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>512</v>
       </c>
@@ -8627,7 +9068,10 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C267" s="2">
         <v>7</v>
       </c>
@@ -8640,13 +9084,16 @@
         <v>181</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C268" s="2">
         <v>7</v>
       </c>
@@ -8656,7 +9103,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="1"/>
       <c r="G268" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>204</v>
@@ -8665,7 +9112,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>513</v>
       </c>
@@ -8689,7 +9136,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>512</v>
       </c>
@@ -8707,13 +9154,16 @@
         <v>222</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C271" s="2">
         <v>7</v>
       </c>
@@ -8732,7 +9182,10 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C272" s="2">
         <v>8</v>
       </c>
@@ -8751,7 +9204,10 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C273" s="2">
         <v>8</v>
       </c>
@@ -8770,7 +9226,10 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C274" s="2">
         <v>8</v>
       </c>
@@ -8789,7 +9248,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>512</v>
       </c>
@@ -8813,7 +9272,10 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C276" s="2">
         <v>8</v>
       </c>
@@ -8832,7 +9294,10 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C277" s="2">
         <v>8</v>
       </c>
@@ -8851,7 +9316,10 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C278" s="2">
         <v>8</v>
       </c>
@@ -8870,7 +9338,10 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C279" s="2">
         <v>8</v>
       </c>
@@ -8883,13 +9354,13 @@
         <v>179</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>512</v>
       </c>
@@ -8913,7 +9384,10 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C281" s="2">
         <v>8</v>
       </c>
@@ -8923,7 +9397,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="1"/>
       <c r="G281" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>269</v>
@@ -8932,7 +9406,10 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C282" s="2">
         <v>8</v>
       </c>
@@ -8951,7 +9428,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>512</v>
       </c>
@@ -8963,10 +9440,10 @@
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="G283" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="G283" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>189</v>
@@ -8975,7 +9452,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>512</v>
       </c>
@@ -8999,7 +9476,10 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C285" s="2">
         <v>8</v>
       </c>
@@ -9018,7 +9498,10 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C286" s="2">
         <v>8</v>
       </c>
@@ -9028,16 +9511,19 @@
       <c r="E286" s="2"/>
       <c r="F286" s="1"/>
       <c r="G286" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C287" s="2">
         <v>8</v>
       </c>
@@ -9047,16 +9533,19 @@
       <c r="E287" s="2"/>
       <c r="F287" s="1"/>
       <c r="G287" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="H287" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C288" s="2">
         <v>8</v>
       </c>
@@ -9075,7 +9564,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>513</v>
       </c>
@@ -9099,7 +9588,10 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C290" s="2">
         <v>8</v>
       </c>
@@ -9109,7 +9601,7 @@
       <c r="E290" s="2"/>
       <c r="F290" s="1"/>
       <c r="G290" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>110</v>
@@ -9118,7 +9610,10 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C291" s="2">
         <v>8</v>
       </c>
@@ -9128,16 +9623,16 @@
       <c r="E291" s="2"/>
       <c r="F291" s="1"/>
       <c r="G291" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="H291" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>512</v>
       </c>
@@ -9161,7 +9656,10 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C293" s="2">
         <v>8</v>
       </c>
@@ -9180,7 +9678,10 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C294" s="2">
         <v>8</v>
       </c>
@@ -9190,16 +9691,19 @@
       <c r="E294" s="2"/>
       <c r="F294" s="1"/>
       <c r="G294" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="H294" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="H294" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C295" s="2">
         <v>8</v>
       </c>
@@ -9218,7 +9722,10 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C296" s="2">
         <v>8</v>
       </c>
@@ -9237,7 +9744,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>512</v>
       </c>
@@ -9261,7 +9768,10 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C298" s="2">
         <v>8</v>
       </c>
@@ -9280,7 +9790,10 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C299" s="2">
         <v>8</v>
       </c>
@@ -9299,7 +9812,10 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C300" s="2">
         <v>8</v>
       </c>
@@ -9312,13 +9828,13 @@
         <v>185</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>512</v>
       </c>
@@ -9338,7 +9854,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>513</v>
       </c>
@@ -9350,7 +9866,7 @@
       </c>
       <c r="E302" s="2"/>
       <c r="F302" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G302" s="6"/>
       <c r="H302" s="1"/>
@@ -9360,7 +9876,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C303" s="2">
         <v>8</v>
       </c>
@@ -9379,7 +9898,10 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C304" s="2">
         <v>8</v>
       </c>
@@ -9398,7 +9920,10 @@
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C305" s="2">
         <v>9</v>
       </c>
@@ -9408,16 +9933,19 @@
       <c r="E305" s="2"/>
       <c r="F305" s="1"/>
       <c r="G305" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C306" s="2">
         <v>9</v>
       </c>
@@ -9436,7 +9964,10 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C307" s="2">
         <v>9</v>
       </c>
@@ -9455,7 +9986,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>513</v>
       </c>
@@ -9467,7 +9998,7 @@
       </c>
       <c r="E308" s="2"/>
       <c r="F308" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>158</v>
@@ -9479,7 +10010,10 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C309" s="2">
         <v>9</v>
       </c>
@@ -9498,7 +10032,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>512</v>
       </c>
@@ -9522,7 +10056,10 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C311" s="2">
         <v>9</v>
       </c>
@@ -9541,7 +10078,10 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C312" s="2">
         <v>9</v>
       </c>
@@ -9560,7 +10100,10 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C313" s="2">
         <v>9</v>
       </c>
@@ -9579,7 +10122,10 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C314" s="2">
         <v>9</v>
       </c>
@@ -9598,7 +10144,7 @@
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>512</v>
       </c>
@@ -9622,7 +10168,10 @@
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C316" s="2">
         <v>9</v>
       </c>
@@ -9641,7 +10190,10 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C317" s="2">
         <v>9</v>
       </c>
@@ -9660,7 +10212,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>512</v>
       </c>
@@ -9684,7 +10236,10 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C319" s="2">
         <v>9</v>
       </c>
@@ -9703,7 +10258,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>512</v>
       </c>
@@ -9718,7 +10273,7 @@
         <v>489</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>194</v>
@@ -9727,7 +10282,10 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C321" s="2">
         <v>9</v>
       </c>
@@ -9746,7 +10304,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>513</v>
       </c>
@@ -9758,7 +10316,7 @@
       </c>
       <c r="E322" s="2"/>
       <c r="F322" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>245</v>
@@ -9770,7 +10328,10 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C323" s="2">
         <v>9</v>
       </c>
@@ -9783,13 +10344,16 @@
         <v>324</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C324" s="2">
         <v>9</v>
       </c>
@@ -9808,7 +10372,10 @@
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C325" s="2">
         <v>9</v>
       </c>
@@ -9827,7 +10394,10 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C326" s="2">
         <v>9</v>
       </c>
@@ -9840,13 +10410,16 @@
         <v>224</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C327" s="2">
         <v>9</v>
       </c>
@@ -9865,7 +10438,10 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C328" s="2">
         <v>9</v>
       </c>
@@ -9884,7 +10460,10 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C329" s="2">
         <v>9</v>
       </c>
@@ -9903,7 +10482,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>512</v>
       </c>
@@ -9927,7 +10506,10 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C331" s="2">
         <v>9</v>
       </c>
@@ -9940,13 +10522,13 @@
         <v>326</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>512</v>
       </c>
@@ -9970,7 +10552,10 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C333" s="2">
         <v>9</v>
       </c>
@@ -9980,7 +10565,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="1"/>
       <c r="G333" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>202</v>
@@ -9989,7 +10574,10 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C334" s="2">
         <v>9</v>
       </c>
@@ -10008,7 +10596,7 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>512</v>
       </c>
@@ -10032,7 +10620,10 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C336" s="2">
         <v>10</v>
       </c>
@@ -10051,7 +10642,10 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C337" s="2">
         <v>10</v>
       </c>
@@ -10070,7 +10664,10 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C338" s="2">
         <v>10</v>
       </c>
@@ -10089,7 +10686,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>512</v>
       </c>
@@ -10113,7 +10710,10 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C340" s="2">
         <v>10</v>
       </c>
@@ -10123,16 +10723,19 @@
       <c r="E340" s="2"/>
       <c r="F340" s="1"/>
       <c r="G340" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C341" s="2">
         <v>10</v>
       </c>
@@ -10151,7 +10754,10 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C342" s="2">
         <v>10</v>
       </c>
@@ -10164,13 +10770,16 @@
         <v>180</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C343" s="2">
         <v>10</v>
       </c>
@@ -10179,19 +10788,22 @@
       </c>
       <c r="E343" s="2"/>
       <c r="F343" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G343" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="G343" s="6" t="s">
+      <c r="H343" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C344" s="2">
         <v>10</v>
       </c>
@@ -10204,13 +10816,13 @@
         <v>258</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>513</v>
       </c>
@@ -10234,7 +10846,10 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C346" s="2">
         <v>10</v>
       </c>
@@ -10244,7 +10859,7 @@
       <c r="E346" s="2"/>
       <c r="F346" s="1"/>
       <c r="G346" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>137</v>
@@ -10253,7 +10868,10 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C347" s="2">
         <v>10</v>
       </c>
@@ -10272,7 +10890,10 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C348" s="2">
         <v>10</v>
       </c>
@@ -10291,7 +10912,10 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C349" s="2">
         <v>10</v>
       </c>
@@ -10301,16 +10925,16 @@
       <c r="E349" s="2"/>
       <c r="F349" s="1"/>
       <c r="G349" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="H349" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>512</v>
       </c>
@@ -10336,7 +10960,10 @@
         <v>548</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C351" s="2">
         <v>10</v>
       </c>
@@ -10355,7 +10982,10 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C352" s="2">
         <v>10</v>
       </c>
@@ -10368,13 +10998,16 @@
         <v>420</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C353" s="2">
         <v>10</v>
       </c>
@@ -10387,13 +11020,16 @@
         <v>154</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C354" s="2">
         <v>10</v>
       </c>
@@ -10406,13 +11042,13 @@
         <v>216</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>513</v>
       </c>
@@ -10424,19 +11060,22 @@
       </c>
       <c r="E355" s="2"/>
       <c r="F355" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>421</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C356" s="2">
         <v>10</v>
       </c>
@@ -10455,7 +11094,10 @@
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C357" s="2">
         <v>10</v>
       </c>
@@ -10474,7 +11116,10 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C358" s="2">
         <v>10</v>
       </c>
@@ -10495,7 +11140,10 @@
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C359" s="2">
         <v>10</v>
       </c>
@@ -10508,13 +11156,13 @@
         <v>220</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>513</v>
       </c>
@@ -10540,7 +11188,10 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C361" s="2">
         <v>10</v>
       </c>
@@ -10559,7 +11210,10 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C362" s="2">
         <v>10</v>
       </c>
@@ -10578,7 +11232,10 @@
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C363" s="2">
         <v>10</v>
       </c>
@@ -10597,7 +11254,10 @@
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C364" s="2">
         <v>10</v>
       </c>
@@ -10616,7 +11276,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>512</v>
       </c>
@@ -10638,7 +11298,7 @@
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>512</v>
       </c>
@@ -10653,7 +11313,7 @@
         <v>454</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>427</v>
@@ -10662,7 +11322,10 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C367" s="2">
         <v>11</v>
       </c>
@@ -10681,7 +11344,10 @@
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C368" s="2">
         <v>11</v>
       </c>
@@ -10691,16 +11357,19 @@
       <c r="E368" s="2"/>
       <c r="F368" s="1"/>
       <c r="G368" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C369" s="2">
         <v>11</v>
       </c>
@@ -10719,7 +11388,10 @@
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C370" s="2">
         <v>11</v>
       </c>
@@ -10738,7 +11410,10 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C371" s="2">
         <v>11</v>
       </c>
@@ -10757,9 +11432,9 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C372" s="2">
         <v>11</v>
@@ -10769,7 +11444,7 @@
       </c>
       <c r="E372" s="2"/>
       <c r="F372" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>98</v>
@@ -10781,7 +11456,10 @@
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C373" s="2">
         <v>11</v>
       </c>
@@ -10800,9 +11478,9 @@
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C374" s="2">
         <v>11</v>
@@ -10812,7 +11490,7 @@
       </c>
       <c r="E374" s="2"/>
       <c r="F374" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>32</v>
@@ -10824,7 +11502,10 @@
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C375" s="2">
         <v>11</v>
       </c>
@@ -10843,7 +11524,7 @@
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>512</v>
       </c>
@@ -10867,7 +11548,10 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C377" s="2">
         <v>11</v>
       </c>
@@ -10886,7 +11570,7 @@
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>512</v>
       </c>
@@ -10910,7 +11594,10 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C379" s="2">
         <v>11</v>
       </c>
@@ -10929,7 +11616,7 @@
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>513</v>
       </c>
@@ -10941,7 +11628,7 @@
       </c>
       <c r="E380" s="2"/>
       <c r="F380" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>205</v>
@@ -10953,7 +11640,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>513</v>
       </c>
@@ -10965,7 +11652,7 @@
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>67</v>
@@ -10977,7 +11664,10 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C382" s="2">
         <v>11</v>
       </c>
@@ -10996,7 +11686,10 @@
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C383" s="2">
         <v>11</v>
       </c>
@@ -11015,7 +11708,10 @@
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C384" s="2">
         <v>11</v>
       </c>
@@ -11034,7 +11730,7 @@
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>512</v>
       </c>
@@ -11058,7 +11754,10 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C386" s="2">
         <v>11</v>
       </c>
@@ -11077,7 +11776,10 @@
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C387" s="2">
         <v>11</v>
       </c>
@@ -11087,16 +11789,19 @@
       <c r="E387" s="2"/>
       <c r="F387" s="1"/>
       <c r="G387" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="H387" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="H387" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C388" s="2">
         <v>11</v>
       </c>
@@ -11106,16 +11811,16 @@
       <c r="E388" s="2"/>
       <c r="F388" s="1"/>
       <c r="G388" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="H388" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="H388" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>513</v>
       </c>
@@ -11127,7 +11832,7 @@
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>358</v>
@@ -11139,7 +11844,10 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C390" s="2">
         <v>11</v>
       </c>
@@ -11158,7 +11866,10 @@
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C391" s="2">
         <v>11</v>
       </c>
@@ -11177,7 +11888,10 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C392" s="2">
         <v>11</v>
       </c>
@@ -11196,7 +11910,10 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C393" s="2">
         <v>11</v>
       </c>
@@ -11209,13 +11926,13 @@
         <v>263</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>512</v>
       </c>
@@ -11239,7 +11956,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>513</v>
       </c>
@@ -11251,7 +11968,7 @@
       </c>
       <c r="E395" s="2"/>
       <c r="F395" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>337</v>
@@ -11263,7 +11980,10 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C396" s="2">
         <v>12</v>
       </c>
@@ -11282,7 +12002,10 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C397" s="2">
         <v>12</v>
       </c>
@@ -11301,7 +12024,10 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C398" s="2">
         <v>12</v>
       </c>
@@ -11320,7 +12046,10 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C399" s="2">
         <v>12</v>
       </c>
@@ -11339,7 +12068,10 @@
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C400" s="2">
         <v>12</v>
       </c>
@@ -11358,7 +12090,7 @@
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>512</v>
       </c>
@@ -11382,7 +12114,7 @@
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>512</v>
       </c>
@@ -11406,7 +12138,10 @@
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C403" s="2">
         <v>12</v>
       </c>
@@ -11425,7 +12160,10 @@
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C404" s="2">
         <v>12</v>
       </c>
@@ -11444,7 +12182,7 @@
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>513</v>
       </c>
@@ -11456,7 +12194,7 @@
       </c>
       <c r="E405" s="2"/>
       <c r="F405" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>550</v>
@@ -11468,7 +12206,10 @@
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C406" s="2">
         <v>12</v>
       </c>
@@ -11487,7 +12228,7 @@
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>512</v>
       </c>
@@ -11509,7 +12250,10 @@
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C408" s="2">
         <v>12</v>
       </c>
@@ -11519,16 +12263,19 @@
       <c r="E408" s="2"/>
       <c r="F408" s="1"/>
       <c r="G408" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="H408" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="H408" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C409" s="2">
         <v>12</v>
       </c>
@@ -11547,7 +12294,10 @@
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C410" s="2">
         <v>12</v>
       </c>
@@ -11566,7 +12316,10 @@
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C411" s="2">
         <v>12</v>
       </c>
@@ -11585,7 +12338,10 @@
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C412" s="2">
         <v>12</v>
       </c>
@@ -11598,13 +12354,13 @@
         <v>253</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>512</v>
       </c>
@@ -11628,7 +12384,10 @@
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C414" s="2">
         <v>12</v>
       </c>
@@ -11647,7 +12406,10 @@
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C415" s="2">
         <v>12</v>
       </c>
@@ -11666,7 +12428,10 @@
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C416" s="2">
         <v>12</v>
       </c>
@@ -11685,7 +12450,10 @@
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C417" s="2">
         <v>12</v>
       </c>
@@ -11704,7 +12472,10 @@
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C418" s="2">
         <v>12</v>
       </c>
@@ -11723,7 +12494,10 @@
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C419" s="2">
         <v>12</v>
       </c>
@@ -11742,7 +12516,7 @@
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>512</v>
       </c>
@@ -11766,7 +12540,7 @@
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>512</v>
       </c>
@@ -11790,7 +12564,7 @@
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>512</v>
       </c>
@@ -11805,16 +12579,16 @@
         <v>500</v>
       </c>
       <c r="G422" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="H422" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="H422" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>512</v>
       </c>
@@ -11838,7 +12612,10 @@
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C424" s="2">
         <v>12</v>
       </c>
@@ -11857,7 +12634,10 @@
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="C425" s="2">
         <v>12</v>
       </c>
@@ -11876,7 +12656,7 @@
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>512</v>
       </c>
@@ -11888,7 +12668,7 @@
       </c>
       <c r="E426" s="14"/>
       <c r="F426" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>175</v>
@@ -11900,7 +12680,7 @@
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>512</v>
       </c>
@@ -11924,8 +12704,10 @@
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="11"/>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="B428" s="11"/>
       <c r="C428" s="12"/>
       <c r="D428" s="12"/>
@@ -11997,17 +12779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="147" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>514</v>
       </c>
@@ -12015,12 +12797,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" t="s">
         <v>742</v>
-      </c>
-      <c r="B2" t="s">
-        <v>743</v>
       </c>
     </row>
   </sheetData>
